--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_750.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_750.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d84553-Reviews-Avenue_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>263</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Avenue-Hotel.h15985.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_750.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_750.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="929">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kris R</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>My daughter(31) and I (71 and disabled} checked in very late on 2/5/2018. We found the floors dirty, in fact my daughter found a large bud of weed on the floor. The motion lites were messed up, water all over floor when showering, dead bolt did not work, phone across room not near bed, dreary gray. halls dingy, window dirty and more. We were tired and had an early appt the next morning so we went to bed. After returning from appt. we noticed the pillow cases were dirty, all of them. After checking the sheets found pubic hair, I about threw up. We took the dirty pillow cases to the front desk. The man at front desk was very nice , didn't question us at all and immediately said he would give us a different room and let the manager know and that we should get a discount. It seemed as though he was used to these kind of complaints He was the only one there so we had to move everything ourselves, remember I am 71 and disabled. The next morning the phone, which is across the room rings early, couldnt make it in time because phone was across room, Spoke to what sounded like a young girl who was not helpful. She told me to go down to lobby and talk to Julie the manager. I told her I was still in bed and have julie call...My daughter(31) and I (71 and disabled} checked in very late on 2/5/2018. We found the floors dirty, in fact my daughter found a large bud of weed on the floor. The motion lites were messed up, water all over floor when showering, dead bolt did not work, phone across room not near bed, dreary gray. halls dingy, window dirty and more. We were tired and had an early appt the next morning so we went to bed. After returning from appt. we noticed the pillow cases were dirty, all of them. After checking the sheets found pubic hair, I about threw up. We took the dirty pillow cases to the front desk. The man at front desk was very nice , didn't question us at all and immediately said he would give us a different room and let the manager know and that we should get a discount. It seemed as though he was used to these kind of complaints He was the only one there so we had to move everything ourselves, remember I am 71 and disabled. The next morning the phone, which is across the room rings early, couldnt make it in time because phone was across room, Spoke to what sounded like a young girl who was not helpful. She told me to go down to lobby and talk to Julie the manager. I told her I was still in bed and have julie call the room. When Julie called she was rude and told us to check out. We had the room booked for 3 nites. We had tickets for The Price Is Right that afternoon. I asked her what we were suppose to do and again she said "Why don't you just check out and I won't charge you for the 3rd nite" Again I said where are we suppose to go? Well she was so rude we packed up and left, stopping at front desk on the way out, Julie was there and I gave her the key. The parking garage was another joke, The fiirst day we were blocked in by a construction truck and we had an appointment to get to, There was a pipe on the ceiling right in the middle of the entrance which every few minutes a large amount of water would gush out, God forbid you were walking under it when it happens, and you have to pay an additional 8 dollars a day for that, When we returned home I contacted Hotels.com. They said the hotel was denying everything for discount or refund. Funny for denying everything they issued me a $8.00 refund for one day of parking but no refund for a dirty room or for the 3 nite that we didn't even stay there. Julie is a liar. rude .unqualified no people skills "manager" We never made it to The Price Is Right which was the purpose of our trip, very disappointingMore</t>
   </si>
   <si>
+    <t>markanthonypoet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r523884875-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>susanrstone4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r515030258-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>Such a disappointing stay at this hotel!!  So much wrong.  Such rude front desk help.  Here are some of the things that were just awful.  We were there for 3 nights.  Wifi worked once.  No iron,  No hairdryer.  No desk chair.  Elevator out of service at some point every day.  Bathroom floor filthy upon arrival.  Promised maintence would clean it.  They never came.  The sink faucet was installed so close to the edge of the sink that every time the water was turned on, the counter flooded.  Had to shower in the dark as the light is on a motion activated timer and would go off just as i got in the shower.  Can't re activate from the shower.  Motion activated lights under the beds went off constantly.  Just turning over in bed would set them off.  Awful in the middle of the night.  Very old stained towels.  Dropped a piece of granola wrapper on the floor.  It was still there 2 days later.  I will never ever be back!!More</t>
   </si>
   <si>
+    <t>Gloria B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r503015043-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>First off, that's a minus star how to Plus .I checked into this Hotel July 15th,as soon as I got out of the car, in the $8.00 a night parking lot, I had a bad impression. When I walked into the lobby I start feeling a little better, it was Modern, the floor wasn't clean but it was still decent. Checked in got in the elevator and I thought to myself oh my god, this doesn't look good it had a stench the wood was coming off the walls. The elevator door open and I thought I would die,the smell of ammonia was so strong I can hardly breathe.I made a right and I went to my room, open the door...... I thought I'd just stepped in a toilet. The wallpaper was coming off the walls the Lampshades were torn the bathroom floor tile was cracking under the sink the mold in the shower was unbelievable. This place is truly a dump. Later on my friends checked in, I had to go see their room!!!  The wallpaper was peeling off the walls the bathroom had mold, not just in the shower but on the walls of the bathroom. If I tell you this place is a dump please please believe me. I felt like I needed to disinfect all my belongings and myself after leaving this hotel. On the 15th I came in late I called the front desk and...First off, that's a minus star how to Plus .I checked into this Hotel July 15th,as soon as I got out of the car, in the $8.00 a night parking lot, I had a bad impression. When I walked into the lobby I start feeling a little better, it was Modern, the floor wasn't clean but it was still decent. Checked in got in the elevator and I thought to myself oh my god, this doesn't look good it had a stench the wood was coming off the walls. The elevator door open and I thought I would die,the smell of ammonia was so strong I can hardly breathe.I made a right and I went to my room, open the door...... I thought I'd just stepped in a toilet. The wallpaper was coming off the walls the Lampshades were torn the bathroom floor tile was cracking under the sink the mold in the shower was unbelievable. This place is truly a dump. Later on my friends checked in, I had to go see their room!!!  The wallpaper was peeling off the walls the bathroom had mold, not just in the shower but on the walls of the bathroom. If I tell you this place is a dump please please believe me. I felt like I needed to disinfect all my belongings and myself after leaving this hotel. On the 15th I came in late I called the front desk and ask them for an extra blanket he told me they do not have blankets, I could not believe it, I said,scuse me, he said we don't have blankets he said we only have sheets. Then he told me, I can't bring you the sheet, there's no one here. He told me next time ask for it before I go up to my room,I told him,don't worry sir it will not be a next time, thank you, have a good night. I got home I emptied my luggage in the garage, and threw everything in the wash clean and dirty all washed I did not want to even bring my luggage in my home. The only thing I have to say about this hotel, CAUTION CAUTION,CAUTION. ENTER AT YOUR OWN RISK. More</t>
   </si>
   <si>
+    <t>erin_peka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r485696426-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>tzuhui c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r475093175-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>The hotel is under construction and there's no running water.  It's noisy and dusty.  Holes on the ceiling.I'm having heavy allergy and headache.  It's not a three star hotel.  I will rate it NONE star. They charge $8 daily parking.   With such terrible quality and environment, I would prefer to pick another hotel with free parking and have a good night sleep.</t>
   </si>
   <si>
+    <t>Enzo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r451231202-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>susanfE2470LP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r439351664-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>x E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r432144529-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>lrbtopdown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r422947341-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>First thing that hit us was the smell of the lobby, you know that over powering disinfectant smell trying to mask an order but not quite doing the job, well that was the smell.It took 4 tries before we found a room that was not moldy smelling, walls with lots of damaged, obviously not cleaned before we found one before we could actually stand to stay in one.It's location is a bit dicey, I'm a strong well bit alpha male and I wouldn't walk in the neighborhood after dark.Very disappointing, I kept wondering where were they hiding the nice rooms they show on their website.  Especially since it was not full.More</t>
   </si>
   <si>
+    <t>fabioborsoi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r405011278-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Laura C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r404307217-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t>Stayed here for one night only, we arrived a lot earlier than check in time, but the wonderful man on reception sorted out a room for us early so we could get in and start exploring LA. Room was large and perfectly fine, clean tidy and suited our needs perfectly. We went downstairs to ask about getting in to LA and the gent on reception couldn't be more accommodating, he printed us maps off with direction, gave us his number, gave us tap cards for the tube and suggested a few places to go. Sadly he wasn't there when we returned so we could thank him. Great location, literally 30secs from tube into Hollywood and LA, Pizza Hut around the corner and parking although $8 definitely worth it. Wonderful time - Thank you the Avenue Hotel!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r398881627-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Hector A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r391402963-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>The lady at the front desk was very rude. She did not find my reservation and kept us waiting for one hour!. When she finally found it she did not apologize. She gave us a room that was in the worst condition. Beds without covers and garbage all over the place. Then she gave us another room and again didnt apologize. It was a nightmare. I will never go back to this hotel again!</t>
   </si>
   <si>
+    <t>Tricia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r381473775-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -445,6 +490,9 @@
   </si>
   <si>
     <t>June 2016</t>
+  </si>
+  <si>
+    <t>Kevin F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r367591232-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -481,6 +529,9 @@
 Parking - OK here we go, folks. 8 dollars a day to park in the hotel parking lot would lead you to believe that you have a parking spot. NOT TRUE according to this place. After exploring with friends i came back to find out there was no where to park. i asked about parking and they told me to find some one the street. IN LA. AT 1230AM. AFTER PAYING FOR PARKING. after driving around for 45 mins, I found a spot 5 BLOCKS AWAY. Completely unacceptable. this is crazy to think that if my car was towed or ticketed it wouldnt be the hotels fault but still rest on me. I HATE that I had to walk a mile at 130am just to go back to the...To start, i was greeted by a homeless woman inside of the lobby asking for money. This didnt even bother me anywhere near the fact the elevator was broken the entire weekend. the room - not bad. There was alot unused space within the 1 King-sized room but for the most part I didnt see anything gross or critters. the bedding was a little annoying on the toes as sheet didnt reach the end of the bed. the amenities - Breakfast - Toast, jam and juice. this was at 830 so if your an early riser you might be luckier than I.Wifi - Worked and did what it was needed. Parking - OK here we go, folks. 8 dollars a day to park in the hotel parking lot would lead you to believe that you have a parking spot. NOT TRUE according to this place. After exploring with friends i came back to find out there was no where to park. i asked about parking and they told me to find some one the street. IN LA. AT 1230AM. AFTER PAYING FOR PARKING. after driving around for 45 mins, I found a spot 5 BLOCKS AWAY. Completely unacceptable. this is crazy to think that if my car was towed or ticketed it wouldnt be the hotels fault but still rest on me. I HATE that I had to walk a mile at 130am just to go back to the hotel.I paid 169/159 for 2 nights Fri/Sat. Now i have stayed in Marriot's and Holiday inns that were far less and had much better amenities and had PARKING! awful experience, i will never stay here again. If you do stay, go ahead and park and never move.More</t>
   </si>
   <si>
+    <t>Filippo F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r357353722-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -499,6 +550,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Tylore W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r346213918-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -514,6 +568,9 @@
     <t>terrible stay!!!! bathroom was covered in black mold!!! vagrants standing out side begging!!! car was hit in the parking lot!!!!I was harassed by housekeeping, I tried numerous times to just get a few extra towels since I was there for a total of 3 nights!!!!!!! The housekeeper followed me to my room just to ensure I was a guest at the hotel!!! G.M TOLD ME MY STAY WOULD BE COVERED, THEN DECIDED TO CHARGE 5 DAYS AFTER MY TRIP ENDED. I would certainly advise everyone to choose any hotel over this place!!!absolutely disgusted. everything that could possibly go wrong, DID!!!</t>
   </si>
   <si>
+    <t>Theresa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r318766408-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -535,6 +592,9 @@
     <t>My husband and I decided to stay here after we arrived a day earlier than expected. The hotel we had booked the next night was full, so we picked this hotel because it was reasonably priced. Big mistake. The service wasn't terrible or anything; the hotel is rundown and dingy. The hallway to our room was dark and scary, like a rundown apartment building. Our room smelled moldy and moist. I actually disinfected every surface I had to touch with my travel sized Lysol spray (no joke). If we hadn't been so tired from driving, we never would have stayed here. The tub was rusty, the walls were warped from what I'm assuming must be moisture damage. The floors were stained. The next morning, my husband checked out and mentioned the issues to the front desk. She apologized. Again, the staff isn't the problem. The hotel needs to be cleaned up.More</t>
   </si>
   <si>
+    <t>Brenda P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r314647214-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -553,6 +613,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Lucho E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r308386569-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -571,6 +634,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Argyro K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r298165855-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -595,6 +661,9 @@
     <t>This location  is a big  priviledge  for  a traveller.TIP:instead  of spending  money to taxis for/ from  LAX airport which costs at  least  75$ οne  way, use the LAXflyAway shuttle paying  only 8$ one way.It has  several convinient  stops along  the L.A.Cal+18664359525  or google LAXFlyAway for  details.More</t>
   </si>
   <si>
+    <t>lostvegan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r296790340-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -619,6 +688,9 @@
     <t>I've  always had a great experience when staying at Comfort Inn Properties...but this is a disappointment. ..seems understaffed and worn out...room was musty, rugs are embarrassing,  lobby is a disgrace. ..should be closed down for renovation. ...More</t>
   </si>
   <si>
+    <t>Melody K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r291156452-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -640,6 +712,9 @@
     <t>Went on May 30 '15 - room did not have drain plug for large bathtubor functioning remote for TV - staff, which was not English speaking(all Asians), not only would not provide thembut even unplugged my phoneto prevent me continuing to call to inquire.  Had to phone using entire 7 digit number ( as if dialing from outside) to ask for a wake up call.  Next day phoned800 customer service number for Comfort Inn to complain - onlythen did they bother to provide those two amenities I had askedfor since the night before.  Later, the idiots running this hotelresponded to my complaint to he BBB by sending a letter in pidgin English libeling me by falsely sayin I had picked up an iron and chasedthe bellhops around trying to attack them.  I am 62, female andnot in good health...and I DETEST stupid sneaky little liars.  Hadreservation to stay at another Comfort Inn in Sept, and needlessto say, have canceled.  Do yourselfr a favor and avoid this nuthouse lodging.More</t>
   </si>
   <si>
+    <t>Rositamaria1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r273042990-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -656,6 +731,9 @@
   </si>
   <si>
     <t>My family and I will NEVER be staying there again. We found a roach in our bed and bathroom!! The room smelled like smoke and was in terrible condition. The only highlight was the front desk Help from the young lady Claudia. She was extremely helpful unlike the others and sincerely apologetic. She went above and beyond to show us how to get to places and where to go. It was the only good thing I will give the hotel credit for.More</t>
+  </si>
+  <si>
+    <t>endofdave</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r271473726-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -684,6 +762,9 @@
 Starting with the bad - the place looks worn with age, but not run down. The bathrooms are not the cleanest but the spots the matter most (the counter of the vanity, the toilet and tub) are reasonably clean. Under the vanity is another story since it looks like the last time it was cleaned was when the hotel opened. I was "upgraded" to a room with a hot tub without requesting it. While the surface of the tub was clean, I wasn't about to use it since given the state other things in the hotel are in, I wasn't going to risk whatever was still clogged in the jets shooting into the tub when starting it up. Some of the furniture in the room was fairly beat up, everything could use a new coat of paint or wallpaper and the fan in the bathroom barely worked to vent it and I was better off showering with the door open, fine since I was flying solo....This hotel has probably seen better days, like maybe in the 80s or 90s. You're not getting luxury accommodations here, it's all about how much sketch you can deal with for price. It's certainly not the worst hotel I've stayed in around Los Angeles, there are plenty of places for a little less per night that make this place look like a palace, but it's certainly not the lap of luxury at the beach.Starting with the bad - the place looks worn with age, but not run down. The bathrooms are not the cleanest but the spots the matter most (the counter of the vanity, the toilet and tub) are reasonably clean. Under the vanity is another story since it looks like the last time it was cleaned was when the hotel opened. I was "upgraded" to a room with a hot tub without requesting it. While the surface of the tub was clean, I wasn't about to use it since given the state other things in the hotel are in, I wasn't going to risk whatever was still clogged in the jets shooting into the tub when starting it up. Some of the furniture in the room was fairly beat up, everything could use a new coat of paint or wallpaper and the fan in the bathroom barely worked to vent it and I was better off showering with the door open, fine since I was flying solo. At night the neighborhood didn't feel particularly dangerous, but a person passed out by the stairs from an emergency exit outside (most likely homeless) doesn't do much to reassure someone who might not be as well traveled.The good - the bed linens were clean as were the towels in the bathroom. The location was good for where I was going in the neighborhood. I'm not too sure how close this place is to Universal Studios as they call themselves "near" but it was pretty easy to get around in Hollywood, Silverlak, Los Feliz and West Hollywood. The price was very reasonable given that it was only a little more than other places in the area that are definitely run down and look to cater to a less than savory element. The front desk staff was friendly and helpful for pointing out a few things around to grab soft drinks (rather than the vending machines.) All in all, it hasn't been a bad stay and I was looking to stay within a smaller budget than normal since I really don't feel like a splurge when staying in LA. Parking in the lot is extra per night which over the years appears to be becoming the norm in LA. If you're a bit more uptight about a place being a bit worn out and not the greatest neighborhood in town, you'd be better served admitting you'll have to spend more and go elsewhere but if you're trying to save some money and can deal with a less than pristine hotel, this isn't that bad of a choice given the alternatives.There's also a free breakfast included, but being a night owl I was never up early to give it a try.More</t>
   </si>
   <si>
+    <t>Resource_inspector</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r260904610-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -711,6 +792,9 @@
     <t>Booked at short notice, we went for 'location' and there is no doubt that it is in easy walking distance of major 'must see' places. The service is great and the staff are most helpful and obliging - especially in reception. The room (306) was large with a king size, comfortable bed but the decor was tired. The en suite bathroom was fine but dated and the wash basin had plumbing issues.The main problem is the noise which is mainly from traffic and goes on until the early hours. The single glazing does little to alleviate this but, with the windows closed, the air conditioning does drown out most of it! There is noise from late arriving / early departing guests but a top floor (3rd) room reduces this.Overall, you get what you pay for and this is a budget hotel in a good location.More</t>
   </si>
   <si>
+    <t>Johanna J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r251526728-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -727,6 +811,9 @@
   </si>
   <si>
     <t>January 2015</t>
+  </si>
+  <si>
+    <t>Paul H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r251520375-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -750,6 +837,9 @@
 The second night, we were awakened to a group of approx, 8 teenagers outside our door smoking in the hallway. I have health problems that were aggrevated by the smoke, so we called the desk. Paul answered and told us in a harsh tone...I stayed at this property again about three weeks  ago. I have stayed at this property on and off for over 3 yrs now. I hesitated in writing this review, but I have decided to write it to help ensure that the events that occurred to me there DO NOT happen again to a regular guest. In the past year I have written great reviews for this property, and I have gotten to know most of the staff members there including the GM, Peter Ahir. Unfortunately, my last experience there was not good primarily due to the night clerk/auditor, Paul.Upon arrival, we walked without a reservation. There was rap music playing so loud that it could be heard outside the  lobby door as we were walking in, Paul, the clerk on duty, told us that" he couldnt check us in at the Choice rate online and that if we wanted that rate we would have to make it ourselves." Then he went back to listening to music. We made the reservation then checked in. Quite frankly, I wouldve overlooked this, but it was what happened the second night we were there that was quite disturbing.The second night, we were awakened to a group of approx, 8 teenagers outside our door smoking in the hallway. I have health problems that were aggrevated by the smoke, so we called the desk. Paul answered and told us in a harsh tone of voice to stick a towel under our entranceway door. He refused to come and do anything about it, so I pretty much didnt get any rest from 4 am on,I talked to the GM the next morning, and he apologized. He did refund us the second night, and did seem empathetic. We will consider returning there in the future if this problem is truly addressed, but we did feel like this issue needed to be reviewed. Thanks,Paul HickmanMore</t>
   </si>
   <si>
+    <t>Lazgrn3y3z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r251465710-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -771,6 +861,9 @@
     <t>Out of all the hotels I go to, I wouldn't go anywhere else because of the best customer service I get from Peter! Peter you are the best!!! I appericate the respect, care, and close attention you pay to make customers like me to feel comfortable and enjoy our stay here. Your #1 PETER! Again, Thank you for for making my every stay here the best,and not wanting to go anywhere else ! More</t>
   </si>
   <si>
+    <t>ClaudiaSwerak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r241029898-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -798,6 +891,9 @@
     <t>The room was comfortable, nice bathroom, but wifi was very bad. The breakfast was very good, but the dinning room was so small...it was always crowded and some people had to eat standing. The staff was very nice at all times. we always got space in the garage.More</t>
   </si>
   <si>
+    <t>collin p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r235267088-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -819,6 +915,9 @@
     <t>Random comments:Comfortable bed; clean room. "new car smell" in the hallways.. Breakfast: the sign says "continental" but there were sausage patties, scrambled eggs, and self-serve waffles in the breakfast room.The pool is small, about what one would expect, not good for lap swims.Location is convenient; a strip mall across the street has a grocery store and various shops and services. At night there is a taco truck, "Daniel's Tacos," where the tortillas are made on the griddle in front of you: very fresh and tasty.Renovations are in progress: old furniture is piled in the garage; a vanity in a state of re-assembly was sitting at the east end of the 3rd floor hallway during our stay. Each end of the hotel has a staircase; the eastern one opens into the lobby (there's an exit out of the building too); the western one opens into the parking lot and also out of the building. Entering the western staircase from ground level requires a card key.Wi-fi was serviceable but would slow to a crawl during peak times.Parking isn't adequate for peak times; if leaving early in the morning, allow extra time for the staff to move any cars that are blocking your exit.More</t>
   </si>
   <si>
+    <t>MJStrider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r234346794-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -835,6 +934,9 @@
   </si>
   <si>
     <t>The room was clean, breakfast was adequate, but the rate quoted for the night I was there was $140 and you can do better in the area for that price.  The ladies at the front desk in the morning were lovely but the gentleman there the night we checked in was less than welcoming.  Plus, when he gave us the key to our room, we found out that it was exactly the opposite of what we had requested (we requested top floor away from the elevator....when we looked got off the elevator on our floor - which was the second floor which is their first floor with rooms - the elevator doors opened and we were FACING the door to our room.  So, it was a negative first impression since they did exactly opposite of what was requested).  We didn't even bother going into the room but returned to the front desk.  The clerk promptly assigned us a new room and told us he wasn't the person who had assigned the original room.  Our new room was fine....beds were comfortable, room was clean, but much to our amazement, there was no toilet paper holder in the bathroom, the rolls were just on the top of the tank.  We didn't bother reporting that since obviously they already knew about it since housekeeping puts the rolls there.  Breakfast was the basic Comfort Inn eggs, waffles, bananas, apple, yogurt, cereal, juice and coffee...The room was clean, breakfast was adequate, but the rate quoted for the night I was there was $140 and you can do better in the area for that price.  The ladies at the front desk in the morning were lovely but the gentleman there the night we checked in was less than welcoming.  Plus, when he gave us the key to our room, we found out that it was exactly the opposite of what we had requested (we requested top floor away from the elevator....when we looked got off the elevator on our floor - which was the second floor which is their first floor with rooms - the elevator doors opened and we were FACING the door to our room.  So, it was a negative first impression since they did exactly opposite of what was requested).  We didn't even bother going into the room but returned to the front desk.  The clerk promptly assigned us a new room and told us he wasn't the person who had assigned the original room.  Our new room was fine....beds were comfortable, room was clean, but much to our amazement, there was no toilet paper holder in the bathroom, the rolls were just on the top of the tank.  We didn't bother reporting that since obviously they already knew about it since housekeeping puts the rolls there.  Breakfast was the basic Comfort Inn eggs, waffles, bananas, apple, yogurt, cereal, juice and coffee but nothing special.  The stay wasn't bad, just not worth the price compared to other locations.  I could have stayed there another night but chose to drive to Ontario CA where there is a Comfort Inn that I like and either location was going to serve my needs for the next day.More</t>
+  </si>
+  <si>
+    <t>DaHodges</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r218787160-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -899,6 +1001,9 @@
 One thing I would like to stress is the knowledgeable and friendly Management/ Staff. Usually the attitude of management trinkles down to the front line staff, and I believe this is definitely the case in this hotel. The husband and wife management team(Peter Ahir and Mrs. Ahir) are...I have stayed at this property before, and I have never had any problems. The hotel is a little bit older, but I believe it is just old enough to have had worked most of the "kinks" out. The room I stayed in was spacious, well lit, very clean(would give housekeeping an A+), had extended movie and channel selections, an in-room coffee maker, a microwave and fridge, and everything was in great working order. The carpet, drapes, and room decor are current and the shower has a nice  massage unit with various settings. They offer an in-room whirlpool/jacuzzi suite for a little more cost. The bed is a quilted comfort top, and sleeps GREAT! The tvs are larger and flat screen. They also offer a free hot breakfast with the room which includes eggs,sausage, yogurt, and many other choices.The hotel is located adjacent to the Metro Bus and Train. So, if you are visiting and need to get around L.A. it's perfect for easy on/off transportation, There are many restaraunts near the hotel, and the front desk has great, working knowledge of directions, maps, and menus for the restaraunts that deliver. One thing I would like to stress is the knowledgeable and friendly Management/ Staff. Usually the attitude of management trinkles down to the front line staff, and I believe this is definitely the case in this hotel. The husband and wife management team(Peter Ahir and Mrs. Ahir) are two of the friendliest management individuals I have met in some time. Somethings in life are not trainable. They demonstrate a genuine trait of kindness and care for the hospitality business and travellers overall. In turn, their employees overall express the same. Especially the breakfast hostess and front desk staff. Including the young man who works relief 7-3pm and Paul, 3-11 pm clerk. I would highly recommend this hotel to my friends,co-workers, and family. It definitely has the guest needs/ necessities in mind overall. Thanks for the great stay. cc: Choice HotelsMore</t>
   </si>
   <si>
+    <t>DestiDisovery</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r214165011-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -920,6 +1025,9 @@
     <t>We stayed here in August of 2013- this was the first trip to LA for many of us (we had 13).  Hotel smelled bad, floors were covered in stains. We were on the 1st floor and the door to the outside stayed open all night, yes they had a security gate- but people could still get in!  Never again!More</t>
   </si>
   <si>
+    <t>baileys456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r209438790-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -938,6 +1046,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Kelly  C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r208296197-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -953,6 +1064,9 @@
     <t xml:space="preserve">The hotel was good but the location was a bit dicey, luckily we had a car (which is a necessity in LA) so we drove everywhere! It's in a good location in relation to some big attractions and the freeways! </t>
   </si>
   <si>
+    <t>pasquino b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r207952427-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -995,6 +1109,9 @@
     <t>The guest room was great, and the manager gave me a free upgrade for being a Choice Priveledge Member. The room was spacious with a king bed and micro/fridge combo. Also, the room featured a jaccuzi tub! The bedding was comfortable and everything was in good, working order. All the staff were friendly including front desk, housekeeping, and maintenance.The hotel also offers a free hot breakfast which included sausage, eggs (both fried style and hard boiled), yogurt, bread, cereal, hot waffles, juice, coffee and other items. The hotel is also located adjacent to the LA Metro train and bus lines for easy access to transportation. I would definitely return when in area and encourage travellers to check this place out. There are a lot of things to do and restraunts very nearby, too.More</t>
   </si>
   <si>
+    <t>HappyDiner2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r193104095-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1011,6 +1128,9 @@
   </si>
   <si>
     <t>May 2013</t>
+  </si>
+  <si>
+    <t>cristina s</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r190948011-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -1053,6 +1173,9 @@
 Also: rude maids who sit in breakfast room gossiping...Ok let me start this review with the basics: Location was ok. In a slightly "sketchy" urban area. Lots of loud traffic. The hotel is right off the Vermont/Beverly metrolink exit so if you're without a vehicle it's a great location to go pretty much anywhere in Los Angeles. There's convenient stores and plenty of eats nearby, not to mention you are down the street from Korea town. I ate at "Mexican Village" which had absolutely yummy chicken fajitas. So now onto the hotel itself....Small building tucked between the Metrolink Redline and a Shell gas station, it looks questionable at best, but upon entering it has a small pleasant lobby and looks very updated. The front desk staff/owners are a very nice couple who seem to be happy for the business. Very accommodating. Now for the rooms: I was on 1st floor. My room had clearly been not-so-recently updated in the new Comfort inn style. 40 inch (I think) flat screen, very comfortable bed and typical amenities.  Nice working fridge and microwave. However remnants of how the room used to look remain...which kind of cheapened the "remodeled" look. Chief complaint: the carpet. Disgusting and sticky. I have never stayed somewhere that had sticky carpet like a movie theatre floor after a toddler film. Large stains and over all gross. Despite it's good points, I would likely never stay here again. Also: rude maids who sit in breakfast room gossiping (decent Choice Hotel Basic continental) while you eat. Parking is limited and $8More</t>
   </si>
   <si>
+    <t>Norjean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r184816887-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1074,6 +1197,9 @@
     <t>We were shocked to find our reservations in this neighborhood.  Not to be snooty but we booked Choice Hotels on our across country trip.   A number of them, including this one, didn't meet the standards set in the description. Hotel is Very Old - in a rougher part of town - although it is right near the metro.  The room apparently was suite size w/out the suite furniture.  The curtains smelled of very stale smoke (note the hotel is smokefree).  While Wifi is free the business center computer has a charge.  The entire hotel showed wear and tear and the lobby, while clean, had 60's looking furniture.  Outside the hotel the street was dirty w/ rubbish and cig. stubs.  The hotel was packed w/ tourists and the breakfast room much, much too small to accommodate very many at one time.   All in all - again - trying not to be snooty I wouldn't recommend.More</t>
   </si>
   <si>
+    <t>Fabulas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r183321829-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1095,6 +1221,9 @@
     <t>My wife and I stayed here during a trip to LA. We chose this hotel based on it's location. It is in a pretty good proximity to the areas we wanted. It is right next to the bus stop although we rented a car. The desk staff were very friendly. Wifi works very good in the rooms. The rooms could use an overhaul as they look very dated. The rooms were ok with us, but I can see why people might have issues.  I did feel safe in this hotel at all times. My biggest gripe is the breakfast, it is probably the worst of all Choice Hotels. Although the location is "near" Universal Studios, you can't walk there. I would stay in this location again.More</t>
   </si>
   <si>
+    <t>lpederson59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r179268631-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1111,6 +1240,9 @@
   </si>
   <si>
     <t>September 2013</t>
+  </si>
+  <si>
+    <t>newyoricancharm</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r176623757-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -1136,6 +1268,9 @@
 Due to the last minute booking we would have to switch rooms after 2 days of our stay. However the front desk did a great job with the transition, they held on to our luggage and had everything set for us once we returned from our convention. To our surprise they upgraded us and we were not told until we opened the door and saw a hottub in our king...We stayed here as a last minute quick fix to a dissaterous planning with a group. Needless to say we haven't made any more group lodging plans. This was my first trip to the LA area, so I was excited to see what all the talk was about in LA. Got to the hotel and the front desk person was very polite and took care of immediately. We went up to our room and to our surprise it was Huge! we could fit a whole king size bed across from ours, the bathroom had a facelift and the room it self was nicely decorated and very clean. We had a Fridge and microwave oven along with a coffee maker. We also had a breakfast table and a comfy chair in the room. It was more than I expected from a Comfort Inn. The hotel still could use more work since it still does have some areas that look a bit run down, but over all I was happy with it. Due to the last minute booking we would have to switch rooms after 2 days of our stay. However the front desk did a great job with the transition, they held on to our luggage and had everything set for us once we returned from our convention. To our surprise they upgraded us and we were not told until we opened the door and saw a hottub in our king size room. Unfortunately due to timing we were not able to enjoy the hottub but the gesture and thought of it was wonderful. After such a stressful time with all the planning and this hotel turned our frown upside down. We were happy and greatful to the front desk workers and the owners. They also provided continental breakfast which was very convienient. The metro is right next door, which was our main source of transportation for the whole time we were there. I would recomend this place if your looking to go to the parks and be out all day! Like we were.More</t>
   </si>
   <si>
+    <t>roseangel65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r176096209-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1154,6 +1289,9 @@
     <t>Definitely a budget hotel and tired however value for money. Large rooms, clean, free wi-fi, decent breakfast. Suggest get to dining room before the 7:30 rush as quite small. Coffee making facilities and fridge in room. Large beds were clean and surprisingly comfy with decent pillows. Area not the best but only stayed one night. Lots of eating places within a short walk. Subway train station 2 minute walk. We arrived after flight from Australia (I pre booked the supershuttle from airport $35 for 2). I thought maybe we could drop our bags until check in time however the staff member if we wait 20 minutes our rooms would be ready. So we were in our rooms and sleeping at 11:30am. Great service. We traveled by subway to Universal Station, and on to Universal Studios so this hotel was ideal for one night. It was surprisingly quiet overnight considering its located on a busy road. Found staff professional and friendly.More</t>
   </si>
   <si>
+    <t>Josh L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r173941713-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1172,6 +1310,9 @@
     <t>We stayed there for two night while dropping my daughter off at USC.  I chose the hotel solely on location.  USC is on the same road.  Easy commute.  There are few restaurants in the area, but there are hoards of restaurants that deliver.  The hotel is tired and old.  But it is clean and there are no bugs.  The rooms were a nice size and we had a microwave and refrigerator,  The bathroom was clean.  Breakfast was free and had a nice selection (the donuts were awesome).  Parking was indoors and protected.  If you do not want a five star hotel, and you want a clean hotel the is convenient, then stay here.More</t>
   </si>
   <si>
+    <t>hod01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r171773996-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1190,6 +1331,9 @@
     <t>There are other cheap motels in LA, but I wanted the familiarity of a chain.The hotel was alright.  There's not much in the way of 'facilities' as you'd expect.  You get wi-fi though and a free breakfast which is pretty decent (cereal, bagels, sausage, scrambled egg, juice,  yogurt, waffles). Note that the area serving breakfast only has a few tables and gets pretty busy. They charge for parking BUT if you join the Choice loyalty program (free) then they waive the parking charge.The room itself was alright.  Tidy enough and relatively clean - although it smelled faintly of cigarette smoke and there was a cigarette burn on the bedsheet.  There's a fridge and microwave which are useful.The area it is in isn't so great.  There's a Denny's and some fast food places nearby but no decent eating places within walking distance so you'll be driving.  It is pretty handy for getting to Hollywood or Universal Studios or Griffith park - distance wise you're only a few miles from each (although in LA traffic that still takes half an hour!).More</t>
   </si>
   <si>
+    <t>Amanda N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r169309260-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1211,6 +1355,9 @@
     <t>This hotel is located in a very bad area, but honestly the worst part of this hotel experience is the extremely rude staff.  Our room was prepaid months ago through a third party booking company, but when we went to check in the staff refused to give us our prepaid room because I lost my driver's license on my trip, and they would not use my alternative photo identification.  The attendant said he could use my husband's drivers license, but when my husband went into the office to check in he said the third party booking company did not include his name (same last name) on my booking; therefore, he would not check us in to our prepaid room.  We called the booking company and they added my husband to the reservation, after speaking to the hotel staff.  The booking company asked the hotel staff for their fax number, but the very rude staff member told the booking company "you know the procedure" and refused to provide the fax number; therefore, my husband's name on the reservation could be sent to the hotel.  Thank goodness  the booking company experienced this outrageous behavior from the  staff as well because they immediately cancelled our reservation and provided us with a full refund.  The hotel would have kept the money and sent  us on our way and not provided us with a room.  We were concerned when we saw this same staff yelling...This hotel is located in a very bad area, but honestly the worst part of this hotel experience is the extremely rude staff.  Our room was prepaid months ago through a third party booking company, but when we went to check in the staff refused to give us our prepaid room because I lost my driver's license on my trip, and they would not use my alternative photo identification.  The attendant said he could use my husband's drivers license, but when my husband went into the office to check in he said the third party booking company did not include his name (same last name) on my booking; therefore, he would not check us in to our prepaid room.  We called the booking company and they added my husband to the reservation, after speaking to the hotel staff.  The booking company asked the hotel staff for their fax number, but the very rude staff member told the booking company "you know the procedure" and refused to provide the fax number; therefore, my husband's name on the reservation could be sent to the hotel.  Thank goodness  the booking company experienced this outrageous behavior from the  staff as well because they immediately cancelled our reservation and provided us with a full refund.  The hotel would have kept the money and sent  us on our way and not provided us with a room.  We were concerned when we saw this same staff yelling at two other staff member, and then again at a third staff member who indicated he was out of control, before we checked in. I hope you read this caution because this hotel.  It is a never again experience and is the worst hotel I have ever encountered.  There are too many hotels, many located in a much better area, to choose this one and be treated poorly.More</t>
   </si>
   <si>
+    <t>Nettm0575</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r168124743-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1229,6 +1376,9 @@
     <t>I try to only stay at hotels w 2 queen beds &amp; free breakfast in a safe neighborhood. So this place accommodated my needs. Most of LA is a little ghetto. This hotel is on the fwy &amp; I wouldn't say it's a nice neighborhood but I didn't feel unsafe walking to my car. The best way to describe the hotel is to say it looks like a hotel that use to be nice, but has not been kept up. It is a little run down. It wasn't filthy &amp; gross but wasn't spotless clean either. The elevators look pretty bad &amp; my kids wouldn't use them. The ice machine on the 2nd floor didn't work for at least 3 days. There r soda machines on all floors but none of them were stocked. The free breakfast was good. They offered waffles, cereal, donuts, yogurt, etc. the staff was friendly. More</t>
   </si>
   <si>
+    <t>Zohora07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r163322260-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1244,6 +1394,9 @@
     <t xml:space="preserve">I was fooled by the photos,this would have to be one of the worst hotels I've stayed in. The room was old, run down and dirty. The bed sheets had a dead spider and holes in them. The bathroom had tatty towels and cockroaches. This hotel is not near any attractions. It might be near a metro but the area is very creepy and you really wouldn't want to be coming back late! Overall a horrible experience and I wouldn't recommend it to anyone. Not worth what you pay so please don't waste your money here! </t>
   </si>
   <si>
+    <t>Bek91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r162789540-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1259,6 +1412,9 @@
     <t>This place isn't the Hyatt or the Marriott, but for the price it was, with the access it has to the metro &amp; you can't beat the value in LA itself. It's not super close to any of the major attractions, but once again, the metro is right there, and that will take you to anywhere. The actual location itself, while it didn't feel unsafe, it didn't feel all that safe either. During the day is fine, night time not so much. We arrived on a flight from Brisbane, Australia at 7.30am, which meant we got to the motel about 10 after clearing customs, getting on the flyaway/metro etc, and Peter, the manager was able to get us into a room pretty much straight away. We had no problems with ours. I saw someone mention it's a non-smoking hotel. It's not, as we had booked &amp; received a smoking room. If need be I would probably stay again, however, LA isn't really my thing.More</t>
   </si>
   <si>
+    <t>Manish_Econolodge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r162435719-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1274,6 +1430,9 @@
     <t>We stayed at this hotel while in attendance at a conference in LA. GM Peter was very helpful. Great location, Great value. Will stay again. Room had everything required to make your stay comfortable and memorable.</t>
   </si>
   <si>
+    <t>Kittycat27186470</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r159739746-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1295,6 +1454,9 @@
     <t>Stayed here due to the location close to the underground stop, the rooms looked decent and general value for Money. We had a massive room on the top floor. Yes the main corridors and lift are a bit dated, but the rooms are fine. Clean, smart, massive tv, fridge, lots of storage. Cleaned everyday with new towels, bedding.Staff were so helpful. Made us feel very welcome and helped us out on many occasions.Breakfast was ok.. If you can get a table. The room is very small and packed, so you're lucky if you can get a seat. Some big groups seemed to Hogg the tables and just be sipping a cup of tea. Bit frustrating. Served from 6-9am. We went down various times during our stay and Never got a seat, so we just ate breakfast elsewhere. You can grab a bagel or donut and leave, but it's hard to walk out with a bowl of cereal!We paid about £350 for the 2 of us for 6 nights bed&amp;breakfast which was good value for us, would def stay again. Also next to a petrol station so handy to buy drinks/snacks after house, and opposite a big Denny's diner. Handy!metro area was fine, not dangerous at all. 5 min on train to hollywood boulevard. Can't beat that :)More</t>
   </si>
   <si>
+    <t>patnf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r159610911-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1313,6 +1475,9 @@
     <t>We arrived in Los Angeles early in the morning and the hotel was able to check us in well before the posted check-in time.  Our room was good size...2 queen size beds, plenty of storage and a flat screen tv. The hotel is next door to one of the stations for the Red Line of the Metro/Subway system which makes getting around easy and convenient. The breakfast area is well maintained and food containers are kept filled...the ladies who have this job are always there, checking to be sure there is plenty of everything available. The neighborhood appears to be older but we never had any problem with it, and heard no street noise while in our room. I would definetly recommend this hotel to anyone going to Los Angeles.More</t>
   </si>
   <si>
+    <t>Magali M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r158608436-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1331,6 +1496,9 @@
     <t>It is a very good hotel!! Beds are extremely comfy!!!!! Breakfast includes different beverages as coffee, juice, milk, etc. You also have fruit, yogurt, waffles, pancakes, cheese, etc. It was very good!!!!! Also, the room was clean and provided with lots of clean towels every day. One day we had an incident at four in the morning when the guests in the upper room were screaming and jumping on the floor (the noise was unbearable) I called the manager at that time and he called them to be quiet. He was very helpful.Peter, the manager during the day, is a very helpful and nice guy. He does his job very well.The neighborhood is not very nice during the night hours, it is fine during the daytime.More</t>
   </si>
   <si>
+    <t>vacation L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r155068556-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1349,6 +1517,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>northwester88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r155029034-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1364,6 +1535,9 @@
     <t>Internet connection was terrible. I have to go to hotel office to get signals. One staff was not friendly at all when we asked more blanket. The room was not clean. We asked a crib and they provided one. But the one we got had many stain.Cons, close to highway and subway system.</t>
   </si>
   <si>
+    <t>llapis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r154295708-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1382,6 +1556,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Howard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r152531176-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1400,6 +1577,9 @@
     <t>I booked this hotel for one night to be near address for business meeting the next day.  Fortunately, it is a one day meeting, so one night is all I needed here.On the positive side, I slept well -- bed and pillows were reasonbly comfortable. On the negative side:1. The hotel is old and it appears little has been reinvested in it --  lobby furniture and hallway carpets are dirty, wallpaper (at least in my room) is peeling back from the wall, and room door does not fit right in the doorframe so that there is a 2 inch gap between the top of the door and door frame that let's light and noise in to the room.2. $8 charge for parking, which is not disclosed on the hotel website (at least I could not find it there).3. Free breakfast served from 6 to 9, however, it seems that set up started at 6, and was not completed until 6:30.  Hot water urn instead had coffee (as did the 2 coffee urns),  I have stayed at other Comfort Inns and been pleased -- but this is my first and last stay at this location.More</t>
   </si>
   <si>
+    <t>Pat V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r150740665-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1416,6 +1596,9 @@
   </si>
   <si>
     <t>May 2012</t>
+  </si>
+  <si>
+    <t>Nimmisupra</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r150661293-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -1453,6 +1636,9 @@
 My concern was the room was on 2nd floor &amp; facing the main road. But the traffic noise was not so bad &amp; subsides after 5pm &amp; then on it gets quiet. One night we heard  kids in the floor above ours running up &amp; down so there was some  noise but it stopped a while later. Overall a  cosy...My daughter &amp; i were in LA from 31 Dec to 4 Jan 2014. A safe hotel..not the open motel sort.We booked this hotel through Agoda &amp; got fab deal. We were without a car so being next to metro Vermont/Beverly was a true bonus &amp; the bus stop a few steps from the hotel was good. Was a bit concerned about the condition of the room after reading reviews but we were surprised.Told them we may be in LA earlier than 3pm for check in they were agreeable if the room was ready. The room was big, cosy and extremely comfortable. Check in smooth we called earlier to give them our booking codes etc. Room came with a fridge &amp; microwave.For a budget hotel, they had hot breakfast, lots of towels and a comfy bed heaps of comfy pillows. Peter the GM explained about the how the weekly cards for the Metro worked &amp; helped by giving us a card with some credit. He was very amiable and kind.There is parking for those driving there.My concern was the room was on 2nd floor &amp; facing the main road. But the traffic noise was not so bad &amp; subsides after 5pm &amp; then on it gets quiet. One night we heard  kids in the floor above ours running up &amp; down so there was some  noise but it stopped a while later. Overall a  cosy room. Good thing they had a lift even if it was dated. We had luggage! Great service and friendly reception folk. Though there is hot breakfast suggest they have different offering say Mon Wed  Fri, Sun &amp; another menu for the other days There is a Mexican grocery store ard the corner.Will be staying there if i make it LA again.More</t>
   </si>
   <si>
+    <t>xMiniCee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r147164614-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1471,6 +1657,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Rich16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r143166974-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1490,6 +1679,9 @@
   </si>
   <si>
     <t>Really cant go wrong with the Comfort Inn near Universal Studios in Hollywood, i cant remember when they changed to hot breakfast, accorting to choicehotels, very recent, with eggs and usually sausage or bacon, waffles i know they had for a while, little note: hotel staff(housekeeping) and front desk clerk eat with you too, as well as their kids, i found it weird as they would actually serve themselves first and push you out the way haha, still location, location, location is what counts, i can withstand the people, compared to the horrible experience up the street "travelodge on sunset/vermont" i would rather stay here, both hotels near the Metro Red Line, very convenient, $5 day pass which is good until 3am the next day, and $20 for a week pass valid on first tap, the tap card is only $2 bucks, with the addition of the expo line, more convenient than ever, going to Culver City for show tapings, as well as the Universal Studios through the Red line and a free shuttle, theres also a bus(#14) Vermont/Beverly that stops by CBS studios for the Price is right, The late late show with Craig Ferguson among others, they do charge for parking, $8 bucks a night..the usual free Internet, other than that another good stay...More</t>
+  </si>
+  <si>
+    <t>southwales2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r142665206-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -1514,6 +1706,9 @@
 Yes the room was a little dated but it was huge, clean and comfortable plus we didnt spend much time there anyway, we hardly heard any noise from either inside or outside the hotel so had good night's sleep.  Free...We had done our research on this hotel and therefore knew what to expect, the hotel was fairly dated but all we wanted was a clean, comfortable room in a good location for travel around LA. We arrived by car but didnt use it again for the 3 day stay as the public transport links were great for what we wanted. There is a $8 per day charge for parking however. The hotel is steps from the Red Metro line which we used for the Walk of Fame (use Hollywood/Highland Station rather than Hollywood/Vine as better location) and Universal Studios.  As per other reviewers we took the metro line down 1 stop to Vermont/Wilshire for the 720 bus to Santa Monica ($1.50 each way for approx 1 hour journey). If you want to visit Griffith Park and the Observatory (great views over the city particularly at sunset) you can take the metro up to Vermont/Sunset for the Griffith Observatory Shuttle for 50 cents each way. Breakfast was sufficient for our needs but it could get busy in the morning, if you were patient and waited for a table however it didnt take long to get a seat. Plenty of choice.Yes the room was a little dated but it was huge, clean and comfortable plus we didnt spend much time there anyway, we hardly heard any noise from either inside or outside the hotel so had good night's sleep.  Free wifi in the room was also a bonus.If you are looking for a good value hotel with good transport links nearby and happy to research for yourself then this is great place to stay in LA.More</t>
   </si>
   <si>
+    <t>Zengski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r140673256-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1530,6 +1725,9 @@
   </si>
   <si>
     <t>We stayed here for three nights in Sept 2012 and found the hotel very good for the price you pay.  First of all the location was excellent.  A few of the other reviews have already mentioned its proximity to the metro station.  However, what's not been said is that the metro stations in LA all have escalators so that's a big plus for people who have children or who are less mobile.  Also being so close to the metro station (less than 200 meters) with escalators means even if you are travelling with large/heavy suitcases you can use the metro to get to the hotel - no steep stairs to climb.  We travelled to the hotel with two heavy suitcases and a big sports bag using the flyaway bus and the metro (flyaway bus from LAX to Union Station then metro red line six stops and we were there), it worked well.  We also used the metro to get to all the touristy spots, the red-line (which the station near the hotel is on) goes everywhere from downtown to hollywood to universal studios.  The breakfast was also very good, with a good variety and plenty of food available.  We have not had the same problems as some of the others in relations to not having enough food.  Not sure if it's because the hotel was quite full and therefore they prepared more food, or the fact that we were always...We stayed here for three nights in Sept 2012 and found the hotel very good for the price you pay.  First of all the location was excellent.  A few of the other reviews have already mentioned its proximity to the metro station.  However, what's not been said is that the metro stations in LA all have escalators so that's a big plus for people who have children or who are less mobile.  Also being so close to the metro station (less than 200 meters) with escalators means even if you are travelling with large/heavy suitcases you can use the metro to get to the hotel - no steep stairs to climb.  We travelled to the hotel with two heavy suitcases and a big sports bag using the flyaway bus and the metro (flyaway bus from LAX to Union Station then metro red line six stops and we were there), it worked well.  We also used the metro to get to all the touristy spots, the red-line (which the station near the hotel is on) goes everywhere from downtown to hollywood to universal studios.  The breakfast was also very good, with a good variety and plenty of food available.  We have not had the same problems as some of the others in relations to not having enough food.  Not sure if it's because the hotel was quite full and therefore they prepared more food, or the fact that we were always there before 9am.  Now, the hotel has a sign at the front desk stating that breakfast is between 6:30am to 9am, so if you get there five minutes before 9am you'd probably not get much.  Same goes for if you arrive at 9am, or after.  We were there normally between 8:30am to 8:45am and there were plenty of food - fruit, yogurt, juice, coffee, eggs, cereal, etc.  We have stayed at more expensive hotels that served less for breakfast, so that was a real plus.  Finally the staff there were pleasant and helpful, gave us information on shuttles to the airport, offered to call us a taxi etc., prior to our departure.  If you do your research before getting to LA and checkin, you won't need much for the front desk staff - after all it is a two star hotel only and therefore you can expect much from the staff.  Plenty of tours are available on the net (the hotel also has some brochures) and some offer pickup from the hotel, also if you get the five-dollar day pass from the metro station which give you unlimited access to the metro and metro buses you can just go exploring - bus 720 will take you from Wilshire/Vermont station (one stop away from the hotel) all the way to Santa Monica.  The only downside... the hotel is really dated and desperately requires an update.  The rooms had good insulation and the beds were reasonably comfortable, as long as you didn't look too closely at the ceiling and/or the floor tiles in the bathroom.  The exterior and interior of the hotel could do with a fresh coat of paint and the hallways also needed some tender loving care, as they smelt of mould.  Overall, if you don't want to spend too much while in LA but want to stay in a comfortable and convenient hotel, this is it.  But if you care about aesthetics of a hotel and other facilities, like a pool or gym (both of which this hotel does not have), you should probably go elsewhere.More</t>
+  </si>
+  <si>
+    <t>D M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r139745386-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -1563,6 +1761,9 @@
 The guy at the front desk could be more friendly and helpful - he just answers what you ask, doesnt provide more info...Stayed at the hotel on Aug 25 2012 for 9 days. The hotel is clean/safe - worth the money spent.If your plan is to just stay in the hotel to sleep/shower leave for whole day - this is a good hotel.Get breakfast each morning (same everyday but good enough) - contains coffee/tea, juices, bagels,bread to toast, danishes, waffle maker (good waffles), jams,fruits (banana,orange,apple) cereals (3) milk, boiled egg, yogurt, cream cheese,thin sausage &amp; egg (which the lady microwaves to cook but good to eat)Rooms - we had Dbl Queen bed - room &amp; Bathroom was clean, no bugs no smell. Room was a good size for 4 ppl, it had closet with safe and hangers for your  clothes. Room had a microwave and fridge (good to keep water), had a coffee maker which didnt work. They had a clock radio, and good air conditioning.  The hotel inside is quiet you cant hear the neighbors, and it seems like no one is on the floor even though they are.Elevator is a bit creaky but no big deal, hallway looks old but is clean. You can hear the sirens outside if a cop car goes by, but the noise doesnt last long, and when your tired from touring all day you wont even notice itThe guy at the front desk could be more friendly and helpful - he just answers what you ask, doesnt provide more info (but if you do your research before goin, u dont need to ask him anything)The Metro/subway Vermont/Beverly is like steps away from the hotel and is a safe area. We took the metro and busses for 9 days and felt very safe. Can get a 7 Day metro pass for $20 which works on all Metro lines and busses. If you are a Senior +62 you can pay 0.25cents a ride in non-peak hrs and 0.55cents in peak hrs (great price). Their transportation system is great - takes you everywhere. We went to Venice Beach by bus - right from the hotel there is a bus stop to take you to venice blvd then you switch buses to goto venice beach takes about 1hr 15min (in good traffic). Subway takes you to Hollywood/Highland (where you see the strip and take the Dbl decker bus from there), also you can see the sites in downtown LA using the metro all within walking distance from the subwayCan take the metro from the Airport to get to the hotel, but you need to change 3 subway lines - not a big deal as you can save good amt of $$ and still use the pass for the day. From airport take "Shuttle G" which takes you to metro Aviation subway station, then take green line, blue line and red line to get to vermont/beverly station.Down the st on Vermont about 3 blocks donw there are fastfood places (Burger King, Little Ceasars, mcDonalds, KFC), and close to the hotel on beverly is a fried chicken place called Jollibee good chicken. The area is safe to walk in, no one bugs you, there are a few bums hanging around outside the subway stn but they are harmless they dont approach you.Across the street is a gas station (red) which has bottled water, pop, snacks etc - we bought 2 jugs of water and stored it in fridge for each day only $3 for 2 1L jugsThey did not charge us the tourist fee or any other fee - if they ask for parking fee $8 and u dont have a car - tell them im not paying i dont have a car and your fine.I would recommend this hotel to anyone not looking for luxury, but looking to stay at a reasonably priced, clean, safe hotel and who plans to use the subway or busses to get around.Suggesstion: Buy your dbl decker bus pass from Madamn Tussad wax museum for 2 days for $55 it includes Madam Tussad museum for Free, and 2 days on Dbl decker bus. We bought it at 12pm and used it for 2 1/2 days. Also, keep your Dbl decker bus ticket and before it expires goto the Grauhmans chinese theater box office to buy a discounted Universal studios ticket for $71 instead of at univ studios for $80Hope you have a great trip - we did!More</t>
   </si>
   <si>
+    <t>Francisco-Silva-63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r137937665-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1583,6 +1784,9 @@
 LOCATION: This hotel is very close to the metro station VERMONT/BEVERLY (2 minutes walking). Tours make its pick-up in this hotel. There are bus in front of the metro station entrance. The metro ticket is 5USD per day (6USD at the first time - You may pay the TAP card), or 1,5USD for 2 hours (2,5USD at the first time). In this station you can access to RED LINE, which leads you to UNIVERSAL STUDIOS (6th stop) or LOS ANGELES DOWNTOWN (the number of stops depend on...Usually, we don't select 2-stars hotels to stay. Our main goal is to reach easly UNIVERSAL STUDIOS, LOS ANGELES DOWNTOWN and the WALK OF FAME, knowing that we would need a tour or taxi to go to BEVERLY HILLS, because we didn't have car in LA. Attending the availability and price, this hotel was our option for 4 nights, mainly due to its location. I advised my family that was a 2-stars hotel and, maybe the comfort wouldn't be the same of the 3 and 4-stars hotels used in others cities in our USA roundtrip. I was wrong. The look of the hotel is not very good, effectively. The area is a little bit dirty. However, the reception was great: Peter (nice guy!!!) explained us all about the hotel, tours that we can do and respective price (he call them booking the tour), details about transportation, etc. He allow us to relax, effectively. LOCATION: This hotel is very close to the metro station VERMONT/BEVERLY (2 minutes walking). Tours make its pick-up in this hotel. There are bus in front of the metro station entrance. The metro ticket is 5USD per day (6USD at the first time - You may pay the TAP card), or 1,5USD for 2 hours (2,5USD at the first time). In this station you can access to RED LINE, which leads you to UNIVERSAL STUDIOS (6th stop) or LOS ANGELES DOWNTOWN (the number of stops depend on the site where you access). There are a little shop in a petrol station in opposite side of the metro entrance and some shops nearby, but we didn't experience them. The area is safety, despite some drunks and homeless in the surroundings (they are also in the walk of fame).HOTEL: The hotel presents car parking, lift (old) and a small room for breakfast. There are vending machines in the ground floor (food and beverages) and in the room corridors (beverages). Machines providing ice are also availables. The hotel is a little bit old, but very comfortable. ROOM: Our room was very large and comfortable. We had 2 queen size beds for 3, air-conditioned, LCD TV, frigobar, Grill, Iron/Ironing clothes, safe box, and so on. The bathroom was large and all works perfectly. The cleanliness was perfect. The furniture is nor new or modern, but is in perfect conditions for use. The beds and pillows are very comfortable.SERVICE: There are a restrict number of employees in the hotel, but enough to ensure the basic function. Reception people is great, namely Peter. However, Peter likes a tip, which is typical in the USA (but not for European people, like us). The people that support the breakfast don't speak english perfectly and is a little bit rude (spanish language people is predominant in this region). All we needed, we got it. PERFECT.BREAKFAST: The breakfast was included in our package, which is not usually in the USA. The breakfast room is small (only 5 tables with 4 or 5 chairs each one). The hotel is usually full. In the morning, people in holidays take breakfast usually between 8:30 and 9:30. The room is full and we need to share our table with other guests in order to allow them to take breakfast, because the employees are inflexible (the best term will be rude) with the closing time for breakfast, switch off the TV and eliminating all the itens available to eat or drink. Please, pay attention with the time to take breakfast.MEALS: This hotel has not options to lunch or dinner. If you are using the metro system as transportation, you easly reach the WALK OF FAME SHOPPING (stop HOLLYWOOD/HIGHLAND), where you can find a huge number of options to eat. Otherwise, you can seach easly the downtown. Be careful: the metro stop HOLLYWOOD/VINE is announced as WALK OF FAME. However, this is a "dark side" of the WALK OF FAME, with many and many drunk and homeless people, with many restaurants with this people. The atmosphere is not good, but you are in HOLLYWOOD. If you are looking for the WALK OF FAME, select the stop HOLLYWOOD/HIGHLAND and you are in a safe area with enjoyable people.INTERNET: High-speed internet access is free of charge in all the hotel (wireless), and you can find a computer in the ground floor, just in case you have not your own computer.IF I COME BACK TO LOS ANGELES, PROBABLY THIS IS THE HOTEL WHERE I WILL STAY.VERY GOOD VALUE FOR THE MONEY.I STRONGLY RECOMMEND IT.More</t>
   </si>
   <si>
+    <t>linda8201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r132891222-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1601,6 +1805,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Oxana_22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r131084874-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1619,6 +1826,9 @@
     <t>We chose this hotel because it's close to Universal Studios (about 4 miles). It's not a 5 stars resort, but it's good enough for visiting LA. Parking is free and safe, area is ok, I felt safe there. The hotel is clean, bathroom is big and they have plenty of towels which are changed every day. They also have coffee maker, coffee and bottled water in rooms. We didn't have refrigerator in our room, but there was ice machine on every floor. The only thing I didn't like too much was breakfast. It was the same every day and everything was microwaved (eggs, bacon etc.). I would recommend this hotel to people who look for a decent hotel to spend several nights in without overpaying. If you want a luxurious resort, go somewhere else.More</t>
   </si>
   <si>
+    <t>Tais C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r130416636-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1634,6 +1844,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>JLS300</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r129117969-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1652,6 +1865,9 @@
     <t>Recently stayed at this property for 1 evening. All in all a good stay. Area is safe and ok, just off the Metro line as well as the 101 in the Silver Lake area. Have to say, not really all that close to Universal, but as both are off the 101, guess the title fits...Room was refurbished and huge. Although it fronted Vermont, was not affected by street noise. Good shower iwth plenty of hot water and water pressure. In room safe is nice as wella s the flat screen tv with cale channek options. Checkin and check out easy enough as prepaid. Did have to pay a parking fee however, these added charges bug me. Should be included in the room rate. Left before breakfast was open, so cannot comment. All in all, a good clean, basic stay worth the rate.More</t>
   </si>
   <si>
+    <t>Billie8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r127999794-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1667,6 +1883,9 @@
     <t>The checkin was quick &amp; easy.  The first morning, the shower handle fell off.  Within a short time, it was fixed &amp; working.  The manager, Mr. Hipolito, was more than knowledgeable of the area, gave great directions, recommendations, and concerns for 2 women traveling alone about where to go &amp; not to go.  I fell in love with LA and will definitely stay at this hotel again.  Very clean, very hospitable.</t>
   </si>
   <si>
+    <t>tolga7t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r124415683-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1680,6 +1899,9 @@
   </si>
   <si>
     <t>I stayed here for a night in order to go to Universal Studios early in the morning. Well, I was suprised to find such an inexpensive room in a such an important location and the rooms had all I needed, so definitely 5 stars.</t>
+  </si>
+  <si>
+    <t>stevereviews</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r123112021-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -1709,6 +1931,9 @@
 But what really keeps me coming back is the service and staff.  Peter the manager is a...There are plenty of 4 and 5 star hotels in Los Angeles that offer impecable service and amenities that are as good as you'll find anywhere outside of Asia.  But when it comes to finding an affordable hotel in a good location for under $100, that's a different story.  There are a lot of scary places and hotels way off the beaten path.  And what may only look like a 15 or 20 minute car trip on the map can often turn into a 2-hour nightmare on LA's infamous roads.  That's why I have chosen to stay at the Comfort Inn whenever I want to take a few days in Los Angeles beyond what work will pay for. (I actually get to stay in many of the city's finest hotels for work but I'm not about to spend $300-$400 on my own nickel!)The Comfort Inn is literally right next door to the city's Metro station that's just a few quick stops from Hollywood and the Kodak Theater.  IF you don't mind a long trip, you can also take the train(s) to LAX, but it's at least a 1.5-2 hour journey.It's also on several major buslines, including the Beverly bus that goes all the way through Beverly Hills and connects to busses that'll easily take you to Santa Monica and the ocean.But what really keeps me coming back is the service and staff.  Peter the manager is a great guy and his team are all efficient and courteous.  They also offer FREE internet and a breakfast that includes eggs, sausage, waffles, toast, fruit, cereal and yogurt.  The great irony is that the breakfast and internet would cost you an additional $30 or $40 bucks at least at the hotels that charge $300 and up a night!Finally, the rooms are very clean with a flat screen tv, and a really nice shower with a massaging feature, a refrigerator, coffee maker and microwave right in the room.Don't be concerned when you arrive - the street and outside could concern some people who haven't stayed in Urban hotels.  But once you get in the lobby and are greeted by the staff, the experience will be a very good one.More</t>
   </si>
   <si>
+    <t>CornwallS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r118491861-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1722,6 +1947,9 @@
   </si>
   <si>
     <t>We stayed here for one night and everything was just right, including the price. The room was a great size and perfectly clean, with a big tv, a fridge, microwave &amp; coffee facilities. Breakfast was basic perfectly adequate and all the staff were nice and friendly.</t>
+  </si>
+  <si>
+    <t>Si_uk_says</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r117582221-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -1751,6 +1979,9 @@
 The breakfast was reasonable including three cereals, a selection of cakes...Stayed here for the first part of out trip for 5 nights. We took the LAX Flyaway to Union Station $7 and then the Metro Line red ($5 day pass, $20 for 7 days) to Vermont/Beverly Station. The Hotel is one building away to the left from the Metro station. We were greeted but a pleasant guy on reception and quickly checked in. The reception area looked clean and modern, we then took the lift (elevator) to the 2nd floor, the lift did not look as modern and looked like it could do with some TLC. The hallways in the hotel looked in a good state if a little dated, the doors to the rooms could do with a fresh paint job though.The room was large with two double comfy beds with a bedside table and alarm clock between the beds, Two sitting chairs and table, A large unit containing drawers and cupboard below the TV, A large flat screen TV, Fridge, Coffee maker, Microwave,  large walk in wardrobe (Closet), Ironing board, Iron and a safe. The room also had it's own air conditioning unit and free wireless internet access.The bathroom was a good size with a large mirror and sink area, toilet and a low level bath and shower The shower did have a strange attachment that produced a rain effect as one of the settings.The breakfast was reasonable including three cereals, a selection of cakes and pastries, bagels and bread that could be toasted and a waffle maker. There was also fresh fruit and plenty of juices and plenty of tea and coffee. A member of staff was regularly clearing up and keeping the cakes and pastries topped up.The area surrounding the hotel felt reasonably safe, we walked along Vermont Ave (Left from the Hotel)  in the afternoon and found a selection of shops, including a small supermarket and plenty of placed to eat including McDonalds about half a mile up the road. There are also plenty of petrol (gas) stations along the road. The area after dark felt reasonably safe, we felt safe enough to walk from the metro station to the hotel after midnight.In summary - The hotel is a good location for travellers not using a car as it is in a great location on the Metro Red line that can take you to the Hollywood/Highland station where the Walk of Fame and Chinese Theatres can be found, Universal Studios (Universal City Station) and Union Street Station for Trains and LAX Flyway. The Hotel also has a car park and only a few blocks away from a free way.The not so good stuff - The décor might not be to everyone's taste yellow and green in the room. Some of the paint was peeling around the edges such as at the bottom of the doors, the outlook from a lot of the rooms is onto other buildings, the breakfast selection is limited compared to other hotels and the breakfast room is small. The hotel is not in the centre of Hollywood and is certainly not near Universal Studios compared to other Hotels.More</t>
   </si>
   <si>
+    <t>bb1687</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r116623323-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1772,6 +2003,9 @@
     <t>As others have said about this hotel, if you're from the middle of no where USA, or you don't travel a lot, you might have diffrent thoughts about this place. I personally thought this place was great for its location and price.My friends, who are more sheltered then my husband and I were aghast that the cashier in the gas station next door was behind glass. lolI'm from small town USA, but i'm well traveled in my peer group and i would stay here again. It was clean, the staff was friendly. I would be cautious, but i didn't feel unsafe or threated by the neighbor hood. It is close to what we wanted to see in LA and it was easy to find. There is a metro stop less than a block away. However, beware when booking, this is not the comfort inn near Hollywood BLVD, its a short driving distance from it, but its not walking distance. For some reason its difficult to tell which one is which when booking. I thought we were in the other one but no. From the reviews, i'm not the only one that has made this mistake. The parking garage here is small so if you have a larger car, beware. We came back late at night and had trouble parking.More</t>
   </si>
   <si>
+    <t>mnew4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r114731708-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1790,6 +2024,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>MamaMel73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r112223646-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1811,6 +2048,9 @@
     <t>Hotel was very outdated.  Pipes were leaking in the garage.  The staff was less than interested that we were there.  Security doors were propped open and that made us a little nervous.  Neighboor is a little scarey.  Bathroom faucet was hanging off of it's bracket and I asked for one extra towel and they did not have one available.  Breakfast was day old food and extremely crowded and confusing.  Everything was stale including the cereal.  If you are looking just for a place to sleep this place is tolerable.  If we were staying any longer than 16 hours I would have moved to another location.   Next time we will stay elsewhere.More</t>
   </si>
   <si>
+    <t>iamme5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r105422074-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1832,6 +2072,9 @@
     <t>the pictures look a lot better than it actually is. the hotel could really use some updates, the room was stuffy, and the bathroom was very aged (like no renovations decades!), the walls were thin and there was a lot of noise from the other rooms . everything seemed old &amp; needed replacing except a few things. the beds were comfortable although there was a brown stain on one of our top sheets (it looked laundered though) and my child refused to sleep in that bed. the breakfast was ok, but there were not enough tables and we saw many people taking food back to their rooms or eating in the lobby. the staff was very nice and accomodating, but it is a basic budget hotel.More</t>
   </si>
   <si>
+    <t>zoslati</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r104437972-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1847,6 +2090,9 @@
     <t>My three friends and I were there for 4 nights. The room was clean, the bathrooms were clean, the hotel was quiet and the staff was excellent, helpful, friendly and always with the smile :) They have nice breakfast variety and the coffee is good. The neighbourhood is not that great and I would not recommend walking around the hotel, especially at night, but I can't say that we had any problems.The metro is right at the corner which is so convenient for either going to Universal Studios or downtown or Hollywood Blvd.</t>
   </si>
   <si>
+    <t>Really1111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r103850063-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1865,6 +2111,9 @@
     <t>Location was decent. No parking on the streets so, u must pay extra for parking.  Pool very small and look dirty.  When I first arrived ther was dirty sheets and garbage bags all the way down the hall.  Which sat there for 3 hours. Everything was painted dark and very little lighting.  T.v. Didn't work.  Cracked wall, hairs and stains on bed sheets.  And on top off it all.... The second day I was there I found mouse poop in the bathroom.  Oh and I can't forget the $300.00 extra that was charge on my card. And this was after I paid in full and checked out.  I'm glad I check my card statements often.  Otherwise they would have left those bogus charges on there.  Not even the manager could explain why that happened.  Stay far far away !More</t>
   </si>
   <si>
+    <t>HCM521</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r101635054-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1883,6 +2132,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>Singhjee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r101459518-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1898,6 +2150,9 @@
     <t>Large rooms(at least the room I got) ; thin walls, TV with mainly Spanish channels, tiny breakfast room and hence always crowded, but adequate breakfast, helpful front office (Peter, Khalil), decent selection of nearby restaurants, especially Denny's.  for which Peter gave me a discount voucher.Sightseeing tours can pick up from hotel. Nearby subway connects Hollywood, Universal and Downtown, hence very convenient. Wifi availableRecommended.</t>
   </si>
   <si>
+    <t>MzLinky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r97462763-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1937,6 +2192,9 @@
     <t>2nd time staying at this hotel, only thing that made me go back was the fact that its right beside an MTA subway Station(red line - Vermont/Berverly Station, Convenience) and for the amount i paid it wasnt that bad ($70-1 night) , but the check in clerk(same as my last visit) upgraded my room, although i was only a Gold Elite Choice Privileges Member, it says there upgrades are only available to Diamond Elite members, and this time, i wasnt charged for parking...or any safe usage charge... only one thing that ruined it was the people staying on a higher floor over my room that were so noisy, at 12 midnight you could hear them walk back and forth their room, i could understand if it was 9am to maybe 9pm, 12 MIDNIGHT??? i think thats the last time for this hotel...More</t>
   </si>
   <si>
+    <t>TravelTipsKrishna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r82473476-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1955,6 +2213,9 @@
     <t>I wanted to stay in Hollywood to experience the night life. I was looking for hotels that have easy connectivity to Hollywood by public transport. This hotel is a few yards away from the Vermont metro station and has connectivity to all of Hollywood attractions (Chinese theater/Kodak theater/walk of fame) and Universal studios. The rooms were good , neat and beds were comfortable. they have high raised beds which will be very convenient for seniors. The tariff included a complimentary breakfast. the best part is that the front desk allows you to leave your luggage after check out so that you can go and explore Hollywood (even after checkout) and come back and collect your bags. I would suggest this place if you want proximity to hollywood/universal studios.More</t>
   </si>
   <si>
+    <t>big47al</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r81554561-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1968,6 +2229,9 @@
   </si>
   <si>
     <t>Great value for money, large clean rooms, basic but good breakfast, and convenient to the Metro.Peter on reception was outstanding, couldn't help enough to everyone.Good economic food close by and also supermarkets</t>
+  </si>
+  <si>
+    <t>cricri7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r68488922-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -1990,6 +2254,9 @@
 The kids were very disappointed because we had...My review has been a long time coming but I feel the responsability to do it once and for all. I stayed 2 nights at this hotel in February during the course of a school trip. We were a group of 3 teachers and 23 grade 9 students from Montreal that were on a school trip to California and the Grand Canyon. We had stayed in a Hampton inn in South San Francisco and then took a bus to get to LA. I had called the hotel a week before to ask them to put us on the second floor since we were with minors and we did not want them going out the window in the middle of the night. The guy on the phone assured me that everything would be in order when we would get there.....are you guessing the end of the story? Almost all the rooms were with a window facing a large balcony that other rooms could access. I immediately went downstairs to have the issue resolved, even if it was past 10 o'clock at night, and I have to give thanks to the night manager that changed every room to other rooms that did not have balconies. He was not too happy but I did not give him a choice. I told him that they were minors and that it was his responsability to do so.The kids were very disappointed because we had been in a nice and clean hotel room in San Francisco and ended up in dirty hotel rooms that were scary. I did not sleep a wink all night because people were going up and down the corridor. I looked through the peephole and noticed that it was gentlemen with women. It is probably a hotel where prostitutes take clients. Let's just say that it is not a hotel where you want to take 15 year olds!!!!The rooms were disgusting....the curtains were dirty....the sheets were dirty....the bedspread was dirty....I was thoroughly disgusted with the place. It was also scary as hell.The only redeeming aspects are the fact that they switched my students to rooms that did not have balconies and the fact that they allowed us to have a pizza party in their breakfast room. We came in late from our day of sightseeing and did not feel like going out to dinner to a restaurant in the area...did I mention scary area also? The night manager, Peter I think is his name, helped us find specials on pizza and the kids were so happy to come down in their pyjamas to eat pizza and talk until curfew time. Since we did not allow them to have parties in their rooms, the setting was perfect for them. I would discourage anyone to stay there. It is a vile place where the manager does his best with what he has. It is not his fault at all that Comfort Inns keeps an establishment like this one under their banner!More</t>
   </si>
   <si>
+    <t>vancouversafari</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r65994550-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2008,6 +2275,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>Vacation_Gal_007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r65986443-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2023,6 +2293,9 @@
     <t>My only concern about this hotel is the location.  It is in a shady neighborhood with transients roaming about; nonetheless, it is pretty safe.  Stayed there for 2 nights.  The hotel was clean.  The room was decent; it was clean and spacious.  It has a small fridge and microwave.  The beds were comfortable and linens were clean (no bed bugs!)  The room has a 32" flat screen panel HDTV which I though was funny since it's a budget hotel.  Cannot comment on the free breakfast because we wanted to venture and check out the local eateries (recommend going to Roscoe's Chicken and Waffle -- YUM!)  Overall, the hotel was okay and would recommend it.  The BIG plus side is that it is right next to the Metro Red Line which will take you anywhere in Los Angeles.  We just parked our car in the hotel and took the Metro (parking is below the hotel and is safe.)  I highly recommend taking the Metro.  It is not only clean and safe but also cheap!  If you are staying in this hotel, then most likely you are on a budget, so the Metro is a great tip for you budget travelers.  With the Metro we were able to go to Union Station, Oliveras Street, Chinatown, Little Tokyo, Universal Studios, Hollywood &amp; Vine, and other tourist areas.  One way ticket is $1.25, but for a whole day it is only $5 (unlimited rides.)...My only concern about this hotel is the location.  It is in a shady neighborhood with transients roaming about; nonetheless, it is pretty safe.  Stayed there for 2 nights.  The hotel was clean.  The room was decent; it was clean and spacious.  It has a small fridge and microwave.  The beds were comfortable and linens were clean (no bed bugs!)  The room has a 32" flat screen panel HDTV which I though was funny since it's a budget hotel.  Cannot comment on the free breakfast because we wanted to venture and check out the local eateries (recommend going to Roscoe's Chicken and Waffle -- YUM!)  Overall, the hotel was okay and would recommend it.  The BIG plus side is that it is right next to the Metro Red Line which will take you anywhere in Los Angeles.  We just parked our car in the hotel and took the Metro (parking is below the hotel and is safe.)  I highly recommend taking the Metro.  It is not only clean and safe but also cheap!  If you are staying in this hotel, then most likely you are on a budget, so the Metro is a great tip for you budget travelers.  With the Metro we were able to go to Union Station, Oliveras Street, Chinatown, Little Tokyo, Universal Studios, Hollywood &amp; Vine, and other tourist areas.  One way ticket is $1.25, but for a whole day it is only $5 (unlimited rides.)  There are not a lot of restaurants near the hotel and I would not recommend walking at night looking for places to eat.  Just take the Metro (literally less than 2 mins walk from the hotel) and it will drop you off in good restaurants in the area.More</t>
   </si>
   <si>
+    <t>hailea3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r63652775-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2041,6 +2314,9 @@
     <t>If there is anything good to say about this hotel, it would be that it is very close to the red line metro train and the beds had decent comfort.The location is not in the best neighborhood although there is a Denny's down the street. Upon entering the lobby, it was obvious that this was going to be a pretty run down hotel. Unfortunately, I was not able to get a refund of the reward points I used to book the hotel. The elevator is old, hallways and carpets are old and not very flattering, and you are greeted with a camera at the front of each hallways. The tub in the first room we were assigned was filthy. We requested and received a new room on a different floor. Surprise, same experience. The tub was at least cleaner this time and the room smelled better. The cleanliness is more a reflection of how old and run down the hotel is overall. I am sure the housekeeping does as good a job as they can with what they are provided.More</t>
   </si>
   <si>
+    <t>ravenlady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r60752583-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2062,6 +2338,9 @@
     <t>Rented a 2 rooms here.  One small one for myself and husband, then a larger one for 3 grown adult children.  We were there for a wedding of daughter/sisters.  The rooms were spacious and clean.  The single electrical outlet in the bathroom made it dangerous to use the coffee maker over the sink.  The place was close to our activities of wedding, reception and restaurants.  Close to the In n Out Hamburger place that all had to try out.  Real close to Universal Studio also which they all enjoyed.Would stay here again.  Was told that the location wasn't that good, but found it to be very safe and the parking was very helpful.  No valet.  We saved money by staying here.More</t>
   </si>
   <si>
+    <t>cludasdulac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r57556232-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2080,6 +2359,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>marierika</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r49860389-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2096,6 +2378,9 @@
   </si>
   <si>
     <t>November 2009</t>
+  </si>
+  <si>
+    <t>tourist82</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r46251105-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -2123,6 +2408,9 @@
 The staff were most helpful upon check in and recommended the best way to get to the game (car in this instance, although the hotel is quite close to a Metro stop). The room was pleasant and larger than most similarly-priced hotels (and some more expensive) that we've stayed in. While the furniture and fittings are older, they are in good condition and the room was very clean (a must for anywhere we stay). Same goes for the bathroom. The hotel did overlook a road which may create a problem for light sleepers, though with the aircon on we didn't notice a thing.
 What we've come to love about the Comfort Inn chain is the breakfast - a substantial and healthy breakfast is provided at all of their hotels, not like the muffins or pastries that have comprised the 'complimentary breakfast' in other chains. The breakfast area was also scrupulously clean and all food was at the right temperature (cold if it was meant to be cold, and likewise for hot foood and beverages) even though we arrived late in the breakfast timeframe.
 Parking...We stayed at this hotel on a recent trip to Los Angeles. On our trip we were going to Universal Studios and an LA Dodgers game. The hotel was conveniently located just off the freeway (but enough off the freeway so you didn't get traffic noise) between the 2 venues, approximately 10mins drive from Dodger's Stadium.The staff were most helpful upon check in and recommended the best way to get to the game (car in this instance, although the hotel is quite close to a Metro stop). The room was pleasant and larger than most similarly-priced hotels (and some more expensive) that we've stayed in. While the furniture and fittings are older, they are in good condition and the room was very clean (a must for anywhere we stay). Same goes for the bathroom. The hotel did overlook a road which may create a problem for light sleepers, though with the aircon on we didn't notice a thing.What we've come to love about the Comfort Inn chain is the breakfast - a substantial and healthy breakfast is provided at all of their hotels, not like the muffins or pastries that have comprised the 'complimentary breakfast' in other chains. The breakfast area was also scrupulously clean and all food was at the right temperature (cold if it was meant to be cold, and likewise for hot foood and beverages) even though we arrived late in the breakfast timeframe.Parking was $5.Overall, it was a clean, comfortable hotel with friendly, helpful staff. The breakfast was excellent and is a big factor in us continuing to seek out Comfort Inns in holiday destinations.More</t>
+  </si>
+  <si>
+    <t>Ek_NZ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r45837146-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -2156,6 +2444,9 @@
 I'm unable to compare it to any other inner city hotels of same rating/value but...I booked this hotel after checking out the Trip Advisor reviews and getting a reasonable price for a well located city hotel on Expedia.  The reviews were pretty representative of this place.It is well located on good bus routes and within 30 metres of the Vermont/Beverly metro station.  If coming from LAX (I had a one night stay to kill some time after flying in from NZ) I would recommend taking the metro rather than buses unless you want to get a feel for the non-ritzy parts of LA.  The buses (2 connections) took almost 2 hours whereas you can get to the hotel in about 40-50mins by metro. I had a Vermont Ave facing room on the 3rd floor.  Road noise was apparent (but not deafening) and the aircon - same as for the San Diego Comfort Inn - is too noisy to leave on while you sleep; a consideration to bear in mind in staying in the heat of summer.The room and hotel in general is really quite old/dated but reasonably clean though more fussy people would be a bit disappointed.  Certainly wouldn't recommend the stay for a relaxing holiday, but it is ok for a night or two at the right price. Reception staff were reasonably friendly so no complaints there.  Breakfast is adequate only unless you love making waffles.I'm unable to compare it to any other inner city hotels of same rating/value but see my review of the Hotel Pepper Tree in Anaheim (great place!!).More</t>
   </si>
   <si>
+    <t>Yannis_78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r36621339-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2169,6 +2460,9 @@
   </si>
   <si>
     <t>Close to lots of areas of LA and to the 101.Great people there to help you with whatever you need. Room perfectly done everyday and great complimentary breakfast. Also, parking was not too expensive for LA.</t>
+  </si>
+  <si>
+    <t>minicooperdownunder</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r32787225-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -2198,6 +2492,9 @@
 The room was a little smaller than most other area motels I have stayed in, but was big enough, very comfortable kingsize bed but extremely high off the ground desk with reliable wifi available free of charge, 32” LCD TV, not the greatest selection of stations but ok, small fridge and microwave, really nice clean bathroom which I suspect has been recently renovated. The bathroom has a shower tub combination with a shower curtain which I am not a huge fan of,  but the shower curtain had magnets sewn into the...Stayed 3 nights here from 9th April to 12th April 2009 in Room 103 overlooking Vermont Avenue. The room is really very very nice,  clean, comfortable and well maintained. I paid AUD $284 which is about US $205 for 3 nights which I thought was a good deal through Expedia the only thing about this hotel is that they have a few extra charges they charge upon check in which I think was something like US $5 per day for parking and US$2 each for the in room safe and unlimited local calls, adds up to just over US $9 per day which even with these added is still good for Los Angeles and the quality of the room. I guess if you don’t have a car you won’t pay the parking bit, I just would have preferred it to be added to the rate I paid through Expedia.The room was a little smaller than most other area motels I have stayed in, but was big enough, very comfortable kingsize bed but extremely high off the ground desk with reliable wifi available free of charge, 32” LCD TV, not the greatest selection of stations but ok, small fridge and microwave, really nice clean bathroom which I suspect has been recently renovated. The bathroom has a shower tub combination with a shower curtain which I am not a huge fan of,  but the shower curtain had magnets sewn into the bottom which kept it in place against the metal tub and that worked really well. Really nice linens on the bed and enough good sized towels   My room fronted onto very busy Vermont Avenue and this may be a problem if you are a light sleeper but didn’t seem to bother me during my stay.Most motels in this area and price range can be a bit hit or miss from what I have read on here but this one was the best of the few I have stayed at over the past few years.  Maid service was efficient and everything was replaced daily, they serve a pretty standard continental type breakfast in a room of the lobby, coffee, toast, donuts, waffles, cereal which were all fine and a bit of a start to the day.The parking area under the hotel is a bit tight and one morning there were more cars than spaces, so that could be a problem.  If you have never been to Los Angeles the area the hotel is in may be a little off putting but it is typical for a large urban US city from what I can tell, you probably won’t want to go walking around late at night but if you are using a car which you really do need in Los Angeles the location is good with easy access to the freeway a few blocks away and a metro station is on the same block. Overall great value for the money and I hope they have the same rate available next time I go to Los Angeles as I would definitely stay there again without hesitation.More</t>
   </si>
   <si>
+    <t>MaxTLV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r32719762-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2216,6 +2513,9 @@
     <t>Located a hundred feet from the red Metro line (Vermont/Beverly), smack in the middle between downtown and Hollywood and a block from the Hollywood freeway, this is a perfect base for exploring Los Angeles. There are inexpensive eateries nearby (google Atlacatl - Salvadorean cuisine, yum!) and larger shops if you need something. This is Koreatown, but people do speak English, prices are low, and we did not feel unsafe at any time.The price was great, but the hotel did surprise us with $5 for WiFi and safes in the room, despite our not using either - the only hotel on this trip (over 15 different hotels) to do so. $5 parking is reasonable. No problems checking in, room in good condition, besides a few damaged spots near the door covered by quaint plastic circles glued on. The breakfast was OK for the hotel class - donuts, waffles, cereal and toast.Our room was with the "road view" (it's across the square and a few trees) and there was no noise problem. Don't know how the gas station-facing rooms are.More</t>
   </si>
   <si>
+    <t>Theatregirl1983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r28637511-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2231,6 +2531,9 @@
     <t>I don't know if we just got a really good deal or not but this place was really cheap. The location was brilliant, and the hotel was lovely. We were only here for one night before starting a trip up the coast but it did the job brilliantly and was only £5 for parking which even with the room still made it the cheapest place on our trip.The breakfast was also brilliant as they had a waffle making machine, which being British was a definate novelty for us. I would highly recommend it to anyone staying in the LA area.</t>
   </si>
   <si>
+    <t>Choicemember</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r28435467-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2247,6 +2550,9 @@
   </si>
   <si>
     <t>We stayed there for 5 nights for vacation.  One thing I like the hotel is that it's very close to Korea Town and supermarkets and drug stores are close by.  And it's very close to 101 South.  The hotel is a bit old.  The garage is spacious and it's right under the hotel.  The beds are quite comfortable.  But the dirty and dusty chairs need to go.  The bathroom needs update also.  The breakfast has very little selection, cereal, donuts and toast.  One toaster and one waffle maker.  Go early!  The metro stop is at the end of the block and the bus stop is right outside of the hotel.  In the afternoon, they start to pop some popcorn so it's plus for the kids.  But watch out for the $5 garage fee and $4.25 service fee every night!More</t>
+  </si>
+  <si>
+    <t>ErnieAndArthur</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r27920011-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -2277,6 +2583,9 @@
 Also - being an ex-smoker it was mildly annoying to be placed in a room in which the entrance was on an open-air balcony...On the whole we found this hotel to be very good. The rooms are large, clean, well appointed with TV, ironing etc. the beds are comfortable and everything seemed to work, including the hot-tub. The location is also very good with the freeway close-by. There were no major issues with this hotel; however there is a couple of things which spoiled the experience which is only fair to write about...Firstly - the breakfast room only holds a very small/finite amount of people and gets very crowded. There are only five or six tables which are very large but don't seat many people as they are round. We found most mornings that we either had to eat in the lobby or go back to our rooms (spilling coffee along the way!). The breakfast is also pretty sparse. This mornings' offering for example only included slices of bread (for toast), butter and jam/jelly, waffles (which you must wait in line and cook yourself - but are very good), some apples, and a variety of 3 cereals (Cheerios, Trix, Total). The coffee can be variable from watery to normal. In the room there is an issue whenever someone next door or above you flushes the toilet or has a shower/hot-tub... you can basically hear the pipes/water... and loud! Also - being an ex-smoker it was mildly annoying to be placed in a room in which the entrance was on an open-air balcony (most room doors are indoors)... therefore making it a meeting place for all smokers late into the night - the associated chattering and smell of smoke annoyed me at best.In my opinion - if the hotel could rectify the breakfast issue this would easily be a 5 out of 5. If you can overlook that part then you will have no worries here.More</t>
   </si>
   <si>
+    <t>Washyourhands</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r25549348-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2296,6 +2605,9 @@
   </si>
   <si>
     <t>Fantastic hotel with all the creature comforts i expected. My husband and I had been planning a stay in LA for a while and were very picky about which hotels we were staying at. We are used to staying at places like the Omni and Wilshire Grand but were on a tighter budget this year. This hotel is amazing! It was real value for money. I couldnt find one fault with the rooms which were a good size and had plenty of space for our 4 pieces of lugguage and my hoard of cosmetics. Theres ample parking, and the location is great! We were able to access all the hotspots of LA using this as a base with ease (disneyland, hollywood etc) we even managed an impromtu visit to Las Vegas and to San Diego. Also as we are both muslims we found local mosques and halal meat not a problem. Breakfast was great with cereal, juices, fruit, fresh dougnuts and pastries (which were replenished when empty and delicious) and we were able to come down at half nine and still get breakfast.The staff were very friendly and helped us in every way possible. Basically all in all this hotel is a gem amongst all the grotty cheap hotels in LA. We will definately come back and cant recommend it enough. If your worried about cleanliness or service then please dont be as this is fantastic in both respects.More</t>
+  </si>
+  <si>
+    <t>dshea77</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r25165516-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -2327,6 +2639,9 @@
 All-in-all it was a...I had a great stay at the Comfort Inn.  First of all, while the neighbourhood may not seem like the greatest, I never felt uncomfortable or like I wasn't safe.  Which isn't to say that I was necessarily right about that, but I had no qualms about walking around at any time.  The inn is right next to the N. Vermont/Beverly metro station which was so convenient.  It took you to Universal Studios in about ten minutes and to Hollywood and Vine in less time than that.  Plus it could connect to downtown very quickly.  There was also a bus on that corner that went very near The Grove and further towards Beverly Hills.  If you're driving, you're a block away from the Hollywood freeway.  The staff was very helpful.  The free breakfast provided more than made up for not having a restaurant.  Also, and this was maybe just our luck, all the other guests that were there at the same time as us were also friendly and would give us tips on where to go.  The only downside I could see was that if your room was facing N. Vermont, it would probably be a little noisy.  As ours didn't, we had peace and quiet.  Also, of the three Pepsi machines, only one was working at the time, but it was fine because the Circle K across the street provided all of our snacking needs.  All-in-all it was a great stay, especially for the low, low price, and I will totally return next time I'm in L.A.More</t>
   </si>
   <si>
+    <t>socaly67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r24702599-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2345,6 +2660,9 @@
     <t>This is a good budget hotel, the complimentary breakfast was just the ticket for a group of teenagers. Metro is literally next to the hotel. Comfortable beds; the manager, Peter is helpful and nice. They will add a roll away to a double queen room. Did I mention I brought a group of teen exchange students on a trip here?  $10 parking fee is reasonable. Micros, mini-fridge and coffee maker in room, as well as good hair drier in bathroom. Really, once you arrive you could just take the metro and leave the car parked. If you are here to do downtown L.A., Hollywood, Universal... this is a good location. Neighborhood is typical urban. It is NOT the ghetto, but it is not suburbia either. Also, it is a straight shot up Vermont to Griffith Park Observatory. Arrive by 10am because it gets crowded.More</t>
   </si>
   <si>
+    <t>Alamojoman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r22255017-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2364,6 +2682,9 @@
   </si>
   <si>
     <t>I stayed at this hotel from 20-24 November 2008.  IMHO, for the money this place offers good value.  Because of the economy and its impact on my travel budget, I had to find a nice, clean place to hang my hat, be in an acceptable location for access to the general area (Hollywood, Studio City, LAX, etc., and be secure; all that for a reasonable sum… and getting that “reasonable sum” element on track can be a daunting task in Southern Cal…especially for a last minute booking.  Because of the comments on this board, I was steered here and fortunate to get into this hotel on short notice.  The location is good with quick access to the 101.  My room was clean and well appointed; everything worked.  Bathroom was nice; towels were abundant.  The furniture &amp; carpet was updated and fresh. There was the requisite in-room safe to store my laptop and other valuables when necessary.  As previously mentioned, the beds were very comfortable and the general atmosphere was pleasant &amp; quiet.  My room was towards the rear of the facility on the 2nd floor, so you may want to request a room away from the front which faces North Vermont Ave. (a busy city thoroughfare)… if you are extremely noise sensitive. The wireless internet connection worked without any glitches and is included free of charge.  There are numerous restaurants and grocery stores nearby and one can walk if you’re...I stayed at this hotel from 20-24 November 2008.  IMHO, for the money this place offers good value.  Because of the economy and its impact on my travel budget, I had to find a nice, clean place to hang my hat, be in an acceptable location for access to the general area (Hollywood, Studio City, LAX, etc., and be secure; all that for a reasonable sum… and getting that “reasonable sum” element on track can be a daunting task in Southern Cal…especially for a last minute booking.  Because of the comments on this board, I was steered here and fortunate to get into this hotel on short notice.  The location is good with quick access to the 101.  My room was clean and well appointed; everything worked.  Bathroom was nice; towels were abundant.  The furniture &amp; carpet was updated and fresh. There was the requisite in-room safe to store my laptop and other valuables when necessary.  As previously mentioned, the beds were very comfortable and the general atmosphere was pleasant &amp; quiet.  My room was towards the rear of the facility on the 2nd floor, so you may want to request a room away from the front which faces North Vermont Ave. (a busy city thoroughfare)… if you are extremely noise sensitive. The wireless internet connection worked without any glitches and is included free of charge.  There are numerous restaurants and grocery stores nearby and one can walk if you’re so inclined and /or feeling adventurous.  I would not recommend any late night strolls, but I found the area to be OK; no Beverly Hills…but no slum either!   There are lots a cool Asian-run businesses everywhere around.  Parking is typical of any big city; there is a reasonable $5 per night charge… but it’s covered, well lit and I never had a problem finding a parking space, howbeit tight (leave the Suburban at home unless you have major parking skills (lol) .  The Manager, Peter, was always helpful and customer support was good.  The included breakfast is simple and apart from the fruit and fruit juices, not orientated for maximum healthy living as I like… but it was OK to fill the gap. (I would love to have seen some bran muffins &amp; oatmeal thrown in the mix; then it would have been AOK for me!)  I found this to be a clean place, with good bed in a decently appointed room, together with reasonable security, easy access to the freeway system and inclusive of a staff that seemed ready to do whatever it would take to make my stay comfortable.More</t>
+  </si>
+  <si>
+    <t>Brits_abr0ad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r20962267-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -2392,6 +2713,9 @@
 It's not the Ritz,...This was the first hotel we stayed at on a three week touring holiday.  We spent our first two nights here and were so impressed we also went back at the end of the holiday for a further two nights.The hotel is right next to the 101 junction so there is easy access to the usual tourist attractions, Universal Studios was about a 10 minute drive. The beds were very comfortable ensuring a good nights sleep, which we needed. The rooms were clean and well maintained, although on our second visit we had to ask to have the bathroom door looked at. This was done immediately, which considering it was 6 o'clock on a Saturday evening and the maintenance guy had gone home was amazing. The desk staff were very helpful on both stays, even letting us use the main computer to check in at the airport because the one for guest use wasn't working.As others had mentioned the breakfast at this hotel is excellent, considering it's complimentary, in fact it was THE best of all the hotels we stayed in. The only problem is you have to get there early if you want a good choice and would like to sit down. We left it 'til about 9 am one morning and there wasn't a lot left and nowhere to sit. Not a major problem when there is a Denny's across the road.It's not the Ritz, but you are paying budget prices. It is excellent value for money.We would definately stay here again and wouldn't hesitate in recommending it to others.More</t>
   </si>
   <si>
+    <t>tbonSanDiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r18722943-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2407,6 +2731,9 @@
     <t>Usually when i stay at a hotel, the first night I toss and turn and the next night I sleep just from exhaustion.  The beds at Comfort Inn were SO comfortable I fell right to sleep and slept all night.  Awesome pillows, good sheets too.  Nobody likes to sleep in hard, scratchy sheets.  Peter at the front desk was so helpful.  I will definitely recommend this place to anyone who wants to stay in a nice, friendly, clean hotel.</t>
   </si>
   <si>
+    <t>DaveM_Sunderland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r16141959-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2425,6 +2752,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>SpainRomeo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r8680370-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2443,6 +2773,9 @@
     <t>August 2007</t>
   </si>
   <si>
+    <t>calicutiepie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r8431683-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2458,6 +2791,9 @@
     <t>The hotel was nice and the staff was friendly. Our room also had a jacuzzi which was very nice. The problem was that our room had this horrible stale, musty smell. We tried to leave our AC on to circulatethe room, but the staff had turned it off when then came to our room.When we came back our room had a horrible smell and felt like a sauna. So if you are sensitive to smells at all I wouldnt recommend the hotel at all.</t>
   </si>
   <si>
+    <t>hmshedd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r8112550-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2476,6 +2812,9 @@
     <t>June 2007</t>
   </si>
   <si>
+    <t>leoSaoPaulo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r7632669-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2512,6 +2851,9 @@
     <t>I guess I was expecting a bit more for the money, but the hotel was fine.  Only 3 major problems I noticed: our room didn't have a screen in the window, and we kept putting a note to keep the window closed, but the maids always opened the window and left it open, so our room would get full of flies and get warm while we were gone.The other problem was that the parking spots in the hotel were VERY tight. It wasn't easy to park at all.Also, when we were checking out, I happened to look inside the office of the front desk clerk and there was a sign posted that said, "Warning: This building is known to contain agents that can cause cancer and reproductive harm."  Something like that sohuld probably be posted somewhere else so people can actually see it.More</t>
   </si>
   <si>
+    <t>brandy_76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r3550503-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2533,6 +2875,9 @@
     <t>I arrived at the hotel expecting the worst, but was surprised to see a clean lobby with couches &amp; tv.  The hotel staff was very friendly, immediately giving me maps of the area.  Room was very big with a desk area - bathroom &amp; room clean.  It could use some new carpeting &amp; furniture as the room had a slight "old" odor to it.The best part is there's a Denny's right across the street &amp; a Metro subway station a few doors down.All in all it's great for the money &amp; not too far away from the tourist area.  I would stay here again if I was on a budget, but if money is not an issue I'd rather stay at the bigger hotels where you're in walking distance to lots of stores.More</t>
   </si>
   <si>
+    <t>bluesquid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r3342101-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2548,6 +2893,9 @@
     <t>A Decent place. Clean for the most part. I didnt think the location was that bad. It was easy to find off the freeway.All I can really say is the hotel had that"junky" feel to it. A little noisy, and it had a few rough edges, but altogether a decent place to stay.</t>
   </si>
   <si>
+    <t>James P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r2520371-Avenue_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2561,6 +2909,9 @@
   </si>
   <si>
     <t>I stayed at this hotel for a week while attending a conference - for the money I really can't complain and indeed liked the place. While the bath tub was a bit small for me, the staff were friendly and the lobby was very nice, as were the rooms (if a bit basic and lacking wireless internet access).The hotel is slap bang next to a subway station (great for tourists, $3 to Universal Studios - beats the cab fare) and 5 minutes walk away from some shops. Top stuff.</t>
+  </si>
+  <si>
+    <t>Brodders</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84553-r2132005-Avenue_Hotel-Los_Angeles_California.html</t>
@@ -3110,43 +3461,47 @@
       <c r="A2" t="n">
         <v>33309</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -3164,50 +3519,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33309</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3225,50 +3584,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33309</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -3288,50 +3651,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33309</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3345,50 +3712,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33309</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3402,50 +3773,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33309</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -3463,50 +3838,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33309</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3520,50 +3899,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33309</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3583,50 +3966,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33309</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
         <v>101</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3640,50 +4027,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33309</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3703,50 +4094,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33309</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3760,50 +4155,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33309</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3817,50 +4216,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33309</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3874,50 +4277,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33309</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3931,50 +4338,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33309</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3988,50 +4399,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33309</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4051,50 +4466,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33309</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4108,50 +4527,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33309</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4169,50 +4592,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33309</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -4232,50 +4659,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33309</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4293,50 +4724,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33309</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4350,50 +4785,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33309</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4405,56 +4844,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33309</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -4470,56 +4913,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33309</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4535,56 +4982,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="X25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33309</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>228</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4596,56 +5047,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="X26" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33309</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4663,56 +5118,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="X27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33309</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4724,56 +5183,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="X28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="Y28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33309</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>254</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="J29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4793,50 +5256,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33309</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>261</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4854,41 +5321,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33309</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -4915,56 +5386,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="X31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33309</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4982,56 +5457,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="X32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="Y32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33309</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -5049,56 +5528,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="X33" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33309</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -5114,56 +5597,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="X34" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="Y34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33309</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>300</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="J35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5179,56 +5666,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="X35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="Y35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33309</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>261</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="J36" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5246,56 +5737,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="X36" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33309</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>315</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5313,56 +5808,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="X37" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33309</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>323</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5386,50 +5885,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33309</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>330</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5443,50 +5946,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33309</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="O40" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5510,50 +6017,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33309</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>261</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="J41" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5575,56 +6086,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="X41" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="Y41" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33309</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>351</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="J42" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5638,41 +6153,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33309</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>358</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="J43" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="K43" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
@@ -5691,50 +6210,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33309</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>365</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="J44" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="K44" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5758,50 +6281,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33309</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>373</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="O45" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5825,50 +6352,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33309</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>381</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="J46" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="K46" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="O46" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5892,50 +6423,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33309</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>388</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="J47" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="K47" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5959,50 +6494,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33309</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>396</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="J48" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6026,50 +6565,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33309</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>403</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="J49" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="K49" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -6093,50 +6636,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33309</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>410</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="J50" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="K50" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -6160,50 +6707,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33309</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>417</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="J51" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="K51" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="L51" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -6227,41 +6778,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33309</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>425</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="J52" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="K52" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="L52" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
@@ -6290,41 +6845,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33309</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>432</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J53" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="K53" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -6353,50 +6912,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33309</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>438</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="J54" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="K54" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6420,50 +6983,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33309</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>444</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="J55" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="K55" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6487,50 +7054,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33309</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>450</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="J56" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="K56" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="L56" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="O56" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6554,50 +7125,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33309</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>458</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="J57" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="K57" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6621,50 +7196,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33309</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>465</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="J58" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="K58" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6688,50 +7267,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>416</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33309</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>472</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J59" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="K59" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="L59" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6745,50 +7328,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33309</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>479</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="J60" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="K60" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="L60" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6812,50 +7399,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>33309</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>485</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="J61" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="K61" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="L61" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="O61" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6879,50 +7470,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>33309</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>492</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="J62" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="K62" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="L62" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6946,50 +7541,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>33309</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>499</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="J63" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="K63" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="L63" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7013,50 +7612,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>33309</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>506</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="J64" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="K64" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="L64" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7080,50 +7683,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>33309</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>514</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>454</v>
+        <v>516</v>
       </c>
       <c r="J65" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="K65" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="L65" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="O65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -7147,50 +7754,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>457</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>33309</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>521</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="J66" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
       <c r="K66" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="L66" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="O66" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7214,50 +7825,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>33309</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>529</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="J67" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="K67" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
       <c r="L67" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="O67" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7281,50 +7896,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>33309</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>536</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="J68" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="K68" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="L68" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7348,50 +7967,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>33309</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>543</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="J69" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="K69" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="L69" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7415,50 +8038,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>33309</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>551</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="J70" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="K70" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="L70" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7480,50 +8107,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>33309</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>558</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="J71" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="K71" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="L71" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7547,50 +8178,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>33309</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>565</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="J72" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="K72" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="L72" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="O72" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7614,50 +8249,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>33309</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>572</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="J73" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
       <c r="K73" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="L73" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7681,50 +8320,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>33309</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>578</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="J74" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="K74" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="L74" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="O74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7748,50 +8391,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>33309</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>585</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="J75" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="K75" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="L75" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="O75" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7815,41 +8462,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>33309</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>591</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="J76" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="K76" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="L76" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7878,50 +8529,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>33309</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>597</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="J77" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="K77" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="L77" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="O77" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7945,41 +8600,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>33309</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>605</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
       <c r="J78" t="s">
-        <v>533</v>
+        <v>608</v>
       </c>
       <c r="K78" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="L78" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -8008,50 +8667,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>33309</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>611</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>537</v>
+        <v>613</v>
       </c>
       <c r="J79" t="s">
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="K79" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="L79" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="O79" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8071,50 +8734,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>33309</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>619</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="J80" t="s">
-        <v>545</v>
+        <v>622</v>
       </c>
       <c r="K80" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="L80" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
       <c r="O80" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8134,50 +8801,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>33309</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>627</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
       <c r="J81" t="s">
-        <v>552</v>
+        <v>630</v>
       </c>
       <c r="K81" t="s">
-        <v>553</v>
+        <v>631</v>
       </c>
       <c r="L81" t="s">
-        <v>554</v>
+        <v>632</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>555</v>
+        <v>633</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8197,50 +8868,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>554</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>33309</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>634</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="J82" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
       <c r="K82" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="L82" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>561</v>
+        <v>640</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -8260,50 +8935,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>562</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>33309</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>642</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="J83" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
       <c r="K83" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="L83" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8327,50 +9006,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>33309</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>650</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
       <c r="J84" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
       <c r="K84" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="L84" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="O84" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8394,41 +9077,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>33309</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>656</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>575</v>
+        <v>657</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="J85" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="K85" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="L85" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -8457,50 +9144,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>33309</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>663</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="J86" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
       <c r="K86" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="L86" t="s">
-        <v>585</v>
+        <v>668</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
       <c r="O86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8524,50 +9215,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>585</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>33309</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>670</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="J87" t="s">
-        <v>589</v>
+        <v>673</v>
       </c>
       <c r="K87" t="s">
-        <v>590</v>
+        <v>674</v>
       </c>
       <c r="L87" t="s">
-        <v>591</v>
+        <v>675</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
       <c r="O87" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8591,50 +9286,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>591</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>33309</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>676</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>592</v>
+        <v>677</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
       <c r="J88" t="s">
-        <v>594</v>
+        <v>679</v>
       </c>
       <c r="K88" t="s">
-        <v>595</v>
+        <v>680</v>
       </c>
       <c r="L88" t="s">
-        <v>596</v>
+        <v>681</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>597</v>
+        <v>682</v>
       </c>
       <c r="O88" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8658,50 +9357,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>596</v>
+        <v>681</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>33309</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>521</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>598</v>
+        <v>683</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>599</v>
+        <v>684</v>
       </c>
       <c r="J89" t="s">
-        <v>600</v>
+        <v>685</v>
       </c>
       <c r="K89" t="s">
-        <v>601</v>
+        <v>686</v>
       </c>
       <c r="L89" t="s">
-        <v>602</v>
+        <v>687</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>603</v>
+        <v>688</v>
       </c>
       <c r="O89" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8725,50 +9428,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>604</v>
+        <v>689</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>33309</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>690</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>606</v>
+        <v>692</v>
       </c>
       <c r="J90" t="s">
-        <v>607</v>
+        <v>693</v>
       </c>
       <c r="K90" t="s">
-        <v>608</v>
+        <v>694</v>
       </c>
       <c r="L90" t="s">
-        <v>609</v>
+        <v>695</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>603</v>
+        <v>688</v>
       </c>
       <c r="O90" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8792,50 +9499,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>610</v>
+        <v>696</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>33309</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>697</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>612</v>
+        <v>699</v>
       </c>
       <c r="J91" t="s">
-        <v>613</v>
+        <v>700</v>
       </c>
       <c r="K91" t="s">
-        <v>614</v>
+        <v>701</v>
       </c>
       <c r="L91" t="s">
-        <v>615</v>
+        <v>702</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>603</v>
+        <v>688</v>
       </c>
       <c r="O91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8859,41 +9570,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>615</v>
+        <v>702</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>33309</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>703</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>617</v>
+        <v>705</v>
       </c>
       <c r="J92" t="s">
-        <v>618</v>
+        <v>706</v>
       </c>
       <c r="K92" t="s">
-        <v>619</v>
+        <v>707</v>
       </c>
       <c r="L92" t="s">
-        <v>620</v>
+        <v>708</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
@@ -8922,50 +9637,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>621</v>
+        <v>709</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>33309</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>710</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
       <c r="J93" t="s">
-        <v>624</v>
+        <v>713</v>
       </c>
       <c r="K93" t="s">
-        <v>625</v>
+        <v>714</v>
       </c>
       <c r="L93" t="s">
-        <v>626</v>
+        <v>715</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>627</v>
+        <v>716</v>
       </c>
       <c r="O93" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8989,50 +9708,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>626</v>
+        <v>715</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>33309</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>717</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="J94" t="s">
-        <v>624</v>
+        <v>713</v>
       </c>
       <c r="K94" t="s">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="L94" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>627</v>
+        <v>716</v>
       </c>
       <c r="O94" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9056,50 +9779,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>33309</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>723</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>633</v>
+        <v>724</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>634</v>
+        <v>725</v>
       </c>
       <c r="J95" t="s">
-        <v>635</v>
+        <v>726</v>
       </c>
       <c r="K95" t="s">
-        <v>636</v>
+        <v>727</v>
       </c>
       <c r="L95" t="s">
-        <v>637</v>
+        <v>728</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>627</v>
+        <v>716</v>
       </c>
       <c r="O95" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -9123,50 +9850,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>638</v>
+        <v>729</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>33309</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>730</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>639</v>
+        <v>731</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>640</v>
+        <v>732</v>
       </c>
       <c r="J96" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="K96" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
       <c r="L96" t="s">
-        <v>643</v>
+        <v>735</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>644</v>
+        <v>736</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9190,50 +9921,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>645</v>
+        <v>737</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>33309</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>738</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>646</v>
+        <v>739</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>647</v>
+        <v>740</v>
       </c>
       <c r="J97" t="s">
-        <v>648</v>
+        <v>741</v>
       </c>
       <c r="K97" t="s">
-        <v>649</v>
+        <v>742</v>
       </c>
       <c r="L97" t="s">
-        <v>650</v>
+        <v>743</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>651</v>
+        <v>744</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9257,50 +9992,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>650</v>
+        <v>743</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>33309</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>745</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>652</v>
+        <v>746</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>653</v>
+        <v>747</v>
       </c>
       <c r="J98" t="s">
-        <v>654</v>
+        <v>748</v>
       </c>
       <c r="K98" t="s">
-        <v>655</v>
+        <v>749</v>
       </c>
       <c r="L98" t="s">
-        <v>656</v>
+        <v>750</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>657</v>
+        <v>751</v>
       </c>
       <c r="O98" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9324,50 +10063,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>656</v>
+        <v>750</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>33309</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>752</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>659</v>
+        <v>754</v>
       </c>
       <c r="J99" t="s">
-        <v>660</v>
+        <v>755</v>
       </c>
       <c r="K99" t="s">
-        <v>661</v>
+        <v>756</v>
       </c>
       <c r="L99" t="s">
-        <v>662</v>
+        <v>757</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>663</v>
+        <v>758</v>
       </c>
       <c r="O99" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9391,50 +10134,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>664</v>
+        <v>759</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>33309</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>760</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>665</v>
+        <v>761</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>666</v>
+        <v>762</v>
       </c>
       <c r="J100" t="s">
-        <v>667</v>
+        <v>763</v>
       </c>
       <c r="K100" t="s">
-        <v>668</v>
+        <v>764</v>
       </c>
       <c r="L100" t="s">
-        <v>669</v>
+        <v>765</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>670</v>
+        <v>766</v>
       </c>
       <c r="O100" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9458,41 +10205,45 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>671</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>33309</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>768</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>672</v>
+        <v>769</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>673</v>
+        <v>770</v>
       </c>
       <c r="J101" t="s">
-        <v>674</v>
+        <v>771</v>
       </c>
       <c r="K101" t="s">
-        <v>675</v>
+        <v>772</v>
       </c>
       <c r="L101" t="s">
-        <v>676</v>
+        <v>773</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
@@ -9521,50 +10272,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>676</v>
+        <v>773</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>33309</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>774</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>677</v>
+        <v>775</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>678</v>
+        <v>776</v>
       </c>
       <c r="J102" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
       <c r="K102" t="s">
-        <v>680</v>
+        <v>778</v>
       </c>
       <c r="L102" t="s">
-        <v>681</v>
+        <v>779</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="O102" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9588,50 +10343,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>683</v>
+        <v>781</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>33309</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>782</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="J103" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="K103" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="L103" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9655,50 +10414,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>33309</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>789</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>691</v>
+        <v>791</v>
       </c>
       <c r="J104" t="s">
-        <v>692</v>
+        <v>792</v>
       </c>
       <c r="K104" t="s">
-        <v>693</v>
+        <v>793</v>
       </c>
       <c r="L104" t="s">
-        <v>694</v>
+        <v>794</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="O104" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9722,50 +10485,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>694</v>
+        <v>794</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>33309</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>795</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>695</v>
+        <v>796</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>696</v>
+        <v>797</v>
       </c>
       <c r="J105" t="s">
-        <v>697</v>
+        <v>798</v>
       </c>
       <c r="K105" t="s">
-        <v>698</v>
+        <v>799</v>
       </c>
       <c r="L105" t="s">
-        <v>699</v>
+        <v>800</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>3</v>
@@ -9789,50 +10556,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>700</v>
+        <v>801</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>33309</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>802</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>701</v>
+        <v>803</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>702</v>
+        <v>804</v>
       </c>
       <c r="J106" t="s">
-        <v>703</v>
+        <v>805</v>
       </c>
       <c r="K106" t="s">
-        <v>704</v>
+        <v>806</v>
       </c>
       <c r="L106" t="s">
-        <v>705</v>
+        <v>807</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="O106" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9856,50 +10627,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>706</v>
+        <v>808</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>33309</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>809</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>707</v>
+        <v>810</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>708</v>
+        <v>811</v>
       </c>
       <c r="J107" t="s">
-        <v>709</v>
+        <v>812</v>
       </c>
       <c r="K107" t="s">
-        <v>710</v>
+        <v>813</v>
       </c>
       <c r="L107" t="s">
-        <v>711</v>
+        <v>814</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>712</v>
+        <v>815</v>
       </c>
       <c r="O107" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9923,50 +10698,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>713</v>
+        <v>816</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>33309</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>817</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>714</v>
+        <v>818</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>715</v>
+        <v>819</v>
       </c>
       <c r="J108" t="s">
-        <v>716</v>
+        <v>820</v>
       </c>
       <c r="K108" t="s">
-        <v>717</v>
+        <v>821</v>
       </c>
       <c r="L108" t="s">
-        <v>718</v>
+        <v>822</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>719</v>
+        <v>823</v>
       </c>
       <c r="O108" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9990,41 +10769,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>720</v>
+        <v>824</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>33309</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>825</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>721</v>
+        <v>826</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>722</v>
+        <v>827</v>
       </c>
       <c r="J109" t="s">
-        <v>723</v>
+        <v>828</v>
       </c>
       <c r="K109" t="s">
-        <v>724</v>
+        <v>829</v>
       </c>
       <c r="L109" t="s">
-        <v>725</v>
+        <v>830</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
@@ -10053,50 +10836,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>726</v>
+        <v>831</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>33309</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>832</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>727</v>
+        <v>833</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>728</v>
+        <v>834</v>
       </c>
       <c r="J110" t="s">
-        <v>729</v>
+        <v>835</v>
       </c>
       <c r="K110" t="s">
-        <v>730</v>
+        <v>836</v>
       </c>
       <c r="L110" t="s">
-        <v>731</v>
+        <v>837</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>732</v>
+        <v>838</v>
       </c>
       <c r="O110" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -10120,50 +10907,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>733</v>
+        <v>839</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>33309</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>840</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>734</v>
+        <v>841</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>735</v>
+        <v>842</v>
       </c>
       <c r="J111" t="s">
-        <v>736</v>
+        <v>843</v>
       </c>
       <c r="K111" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="L111" t="s">
-        <v>737</v>
+        <v>844</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>738</v>
+        <v>845</v>
       </c>
       <c r="O111" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10185,41 +10976,45 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>739</v>
+        <v>846</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>33309</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>847</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>740</v>
+        <v>848</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>741</v>
+        <v>849</v>
       </c>
       <c r="J112" t="s">
-        <v>742</v>
+        <v>850</v>
       </c>
       <c r="K112" t="s">
-        <v>743</v>
+        <v>851</v>
       </c>
       <c r="L112" t="s">
-        <v>744</v>
+        <v>852</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
@@ -10246,50 +11041,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>744</v>
+        <v>852</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>33309</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>853</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>745</v>
+        <v>854</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>746</v>
+        <v>855</v>
       </c>
       <c r="J113" t="s">
-        <v>747</v>
+        <v>856</v>
       </c>
       <c r="K113" t="s">
-        <v>748</v>
+        <v>857</v>
       </c>
       <c r="L113" t="s">
-        <v>749</v>
+        <v>858</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>750</v>
+        <v>859</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -10313,50 +11112,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>749</v>
+        <v>858</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>33309</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>860</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>751</v>
+        <v>861</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>752</v>
+        <v>862</v>
       </c>
       <c r="J114" t="s">
-        <v>753</v>
+        <v>863</v>
       </c>
       <c r="K114" t="s">
-        <v>754</v>
+        <v>864</v>
       </c>
       <c r="L114" t="s">
-        <v>755</v>
+        <v>865</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
       </c>
       <c r="N114" t="s">
-        <v>756</v>
+        <v>866</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>4</v>
@@ -10380,41 +11183,45 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>755</v>
+        <v>865</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>33309</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>867</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>757</v>
+        <v>868</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>758</v>
+        <v>869</v>
       </c>
       <c r="J115" t="s">
-        <v>759</v>
+        <v>870</v>
       </c>
       <c r="K115" t="s">
-        <v>760</v>
+        <v>871</v>
       </c>
       <c r="L115" t="s">
-        <v>761</v>
+        <v>872</v>
       </c>
       <c r="M115" t="n">
         <v>2</v>
@@ -10433,50 +11240,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>761</v>
+        <v>872</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>33309</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>873</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>762</v>
+        <v>874</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>763</v>
+        <v>875</v>
       </c>
       <c r="J116" t="s">
-        <v>764</v>
+        <v>876</v>
       </c>
       <c r="K116" t="s">
-        <v>765</v>
+        <v>877</v>
       </c>
       <c r="L116" t="s">
-        <v>766</v>
+        <v>878</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>767</v>
+        <v>879</v>
       </c>
       <c r="O116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10500,50 +11311,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>766</v>
+        <v>878</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>33309</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>880</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>768</v>
+        <v>881</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>769</v>
+        <v>882</v>
       </c>
       <c r="J117" t="s">
-        <v>770</v>
+        <v>883</v>
       </c>
       <c r="K117" t="s">
-        <v>771</v>
+        <v>884</v>
       </c>
       <c r="L117" t="s">
-        <v>772</v>
+        <v>885</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
       </c>
       <c r="N117" t="s">
-        <v>773</v>
+        <v>886</v>
       </c>
       <c r="O117" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P117" t="n">
         <v>5</v>
@@ -10567,41 +11382,45 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>772</v>
+        <v>885</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>33309</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>138</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>774</v>
+        <v>887</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>775</v>
+        <v>888</v>
       </c>
       <c r="J118" t="s">
-        <v>776</v>
+        <v>889</v>
       </c>
       <c r="K118" t="s">
-        <v>777</v>
+        <v>890</v>
       </c>
       <c r="L118" t="s">
-        <v>778</v>
+        <v>891</v>
       </c>
       <c r="M118" t="n">
         <v>3</v>
@@ -10628,50 +11447,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>779</v>
+        <v>892</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>33309</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>893</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>780</v>
+        <v>894</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>781</v>
+        <v>895</v>
       </c>
       <c r="J119" t="s">
-        <v>782</v>
+        <v>896</v>
       </c>
       <c r="K119" t="s">
-        <v>783</v>
+        <v>897</v>
       </c>
       <c r="L119" t="s">
-        <v>784</v>
+        <v>898</v>
       </c>
       <c r="M119" t="n">
         <v>3</v>
       </c>
       <c r="N119" t="s">
-        <v>785</v>
+        <v>899</v>
       </c>
       <c r="O119" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P119" t="n">
         <v>4</v>
@@ -10693,41 +11516,45 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>786</v>
+        <v>900</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>33309</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>901</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>787</v>
+        <v>902</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>788</v>
+        <v>903</v>
       </c>
       <c r="J120" t="s">
-        <v>789</v>
+        <v>904</v>
       </c>
       <c r="K120" t="s">
-        <v>790</v>
+        <v>905</v>
       </c>
       <c r="L120" t="s">
-        <v>791</v>
+        <v>906</v>
       </c>
       <c r="M120" t="n">
         <v>2</v>
@@ -10754,41 +11581,45 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>791</v>
+        <v>906</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>33309</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>907</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>792</v>
+        <v>908</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>793</v>
+        <v>909</v>
       </c>
       <c r="J121" t="s">
-        <v>794</v>
+        <v>910</v>
       </c>
       <c r="K121" t="s">
-        <v>795</v>
+        <v>911</v>
       </c>
       <c r="L121" t="s">
-        <v>796</v>
+        <v>912</v>
       </c>
       <c r="M121" t="n">
         <v>4</v>
@@ -10807,41 +11638,45 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>796</v>
+        <v>912</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>33309</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>913</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>797</v>
+        <v>914</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>798</v>
+        <v>915</v>
       </c>
       <c r="J122" t="s">
-        <v>799</v>
+        <v>916</v>
       </c>
       <c r="K122" t="s">
-        <v>800</v>
+        <v>917</v>
       </c>
       <c r="L122" t="s">
-        <v>801</v>
+        <v>918</v>
       </c>
       <c r="M122" t="n">
         <v>2</v>
@@ -10868,41 +11703,45 @@
       <c r="W122" t="s"/>
       <c r="X122" t="s"/>
       <c r="Y122" t="s">
-        <v>801</v>
+        <v>918</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>33309</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>138</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>802</v>
+        <v>919</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>803</v>
+        <v>920</v>
       </c>
       <c r="J123" t="s">
-        <v>804</v>
+        <v>921</v>
       </c>
       <c r="K123" t="s">
-        <v>805</v>
+        <v>922</v>
       </c>
       <c r="L123" t="s">
-        <v>806</v>
+        <v>923</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
@@ -10921,41 +11760,45 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>806</v>
+        <v>923</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>33309</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>138</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>807</v>
+        <v>924</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>808</v>
+        <v>925</v>
       </c>
       <c r="J124" t="s">
-        <v>809</v>
+        <v>926</v>
       </c>
       <c r="K124" t="s">
-        <v>810</v>
+        <v>927</v>
       </c>
       <c r="L124" t="s">
-        <v>811</v>
+        <v>928</v>
       </c>
       <c r="M124" t="n">
         <v>2</v>
@@ -10974,7 +11817,7 @@
       <c r="W124" t="s"/>
       <c r="X124" t="s"/>
       <c r="Y124" t="s">
-        <v>811</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
